--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_13_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>579562.869226439</v>
+        <v>575610.544852744</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28846194.58331569</v>
+        <v>28846194.58331567</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6413449.439234848</v>
+        <v>6413449.439234849</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5630583.515675113</v>
+        <v>5630583.515675114</v>
       </c>
     </row>
     <row r="11">
@@ -673,7 +673,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>0.2956717864458521</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930213</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.76484596498756</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="G3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -834,58 +834,58 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>24.76484596498758</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="I4" t="n">
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>24.76484596498758</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -986,58 +986,58 @@
         <v>28.11631013281968</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>24.76484596498758</v>
+      </c>
+      <c r="W6" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>24.76484596498758</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>28.11631013281968</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>24.76484596498756</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>24.76484596498756</v>
+        <v>24.76484596498758</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>28.11631013281968</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="W9" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>24.76484596498756</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>28.11631013281968</v>
       </c>
       <c r="S10" t="n">
-        <v>24.76484596498757</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="T10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="U10" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.390038712721198</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>53.88143536753886</v>
       </c>
       <c r="T11" t="n">
         <v>210.0948960809187</v>
@@ -1429,16 +1429,16 @@
         <v>255.6138015355503</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>60.93774137777592</v>
+        <v>60.93774137777591</v>
       </c>
       <c r="T12" t="n">
         <v>136.2137150380803</v>
@@ -1536,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>157.5057809103495</v>
+        <v>163.7109569854282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>134.5036941999293</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.845416332856608</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T13" t="n">
         <v>237.1312431968815</v>
@@ -1590,10 +1590,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>60.79486514672431</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>368.2683061516101</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>300.971116475984</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>163.7109569854282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6402402577789865</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.845416332856594</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>237.1312431968815</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3344162134288</v>
+        <v>264.6970406405942</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23.22731097293302</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>342.6290381031026</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2004,7 +2004,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>164.4608782498952</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.845416332856594</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1312431968815</v>
+        <v>71.45617312373157</v>
       </c>
       <c r="U19" t="n">
         <v>277.3344162134288</v>
@@ -2083,22 +2083,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>99.61588614394648</v>
+        <v>121.5280301623957</v>
       </c>
       <c r="H20" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2241,22 +2241,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>70.95640058806008</v>
       </c>
       <c r="H22" t="n">
-        <v>104.6283154047372</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T22" t="n">
         <v>237.1312431968815</v>
@@ -2301,13 +2301,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>419.8414050251177</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>36.31624053831634</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.0948960809187</v>
@@ -2383,7 +2383,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>401.2838973446586</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>205.6535471553081</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>162.4453887496354</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>58.44398915360156</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U26" t="n">
         <v>255.6138015355503</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.845416332856594</v>
+        <v>6.845416332857253</v>
       </c>
       <c r="S28" t="n">
         <v>153.0376945003153</v>
@@ -2775,7 +2775,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892124</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>91.49841289863518</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
@@ -2809,7 +2809,7 @@
         <v>398.3261871114271</v>
       </c>
       <c r="H29" t="n">
-        <v>268.2554939029047</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T29" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>161.6836051444971</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
@@ -2970,7 +2970,7 @@
         <v>134.5036941999293</v>
       </c>
       <c r="I31" t="n">
-        <v>72.20334147697451</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>279.7297039291436</v>
       </c>
       <c r="C32" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>274.7197098126699</v>
@@ -3085,13 +3085,13 @@
         <v>210.0948960809187</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>73.29491367885271</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>407.6027988439302</v>
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>398.3261871114271</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7197098126699</v>
+        <v>222.8835446318595</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U35" t="n">
-        <v>164.9196634275038</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3432,16 +3432,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>27.22094413822917</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>163.7109569854282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.73301425173303</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1312431968815</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3344162134288</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>40.90640915450231</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>274.7197098126699</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U38" t="n">
-        <v>117.8541319143458</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>231.3392839569037</v>
+        <v>185.7166463603769</v>
       </c>
       <c r="U40" t="n">
         <v>277.3344162134288</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>386.0441034138014</v>
+        <v>80.5637894797332</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>46.50342440649118</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7109569854282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>134.5036941999293</v>
+        <v>85.30243943337594</v>
       </c>
       <c r="I43" t="n">
-        <v>72.20334147697447</v>
+        <v>72.20334147697446</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>6.845416332856594</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1312431968815</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>387.6057371051801</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>80.84277386665158</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.44398915360157</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4143,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>98.44972476280554</v>
       </c>
       <c r="H46" t="n">
         <v>134.5036941999293</v>
       </c>
       <c r="I46" t="n">
-        <v>72.20334147697447</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>6.845416332856594</v>
       </c>
       <c r="S46" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3344162134288</v>
       </c>
       <c r="V46" t="n">
-        <v>94.74817744513602</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.68081948359844</v>
+        <v>87.68081948359846</v>
       </c>
       <c r="C2" t="n">
-        <v>64.82049353730262</v>
+        <v>64.82049353730264</v>
       </c>
       <c r="D2" t="n">
-        <v>45.56827676270698</v>
+        <v>45.56827676270699</v>
       </c>
       <c r="E2" t="n">
-        <v>23.63174095096858</v>
+        <v>23.6317409509686</v>
       </c>
       <c r="F2" t="n">
-        <v>2.547963180772885</v>
+        <v>2.5479631807729</v>
       </c>
       <c r="G2" t="n">
         <v>2.249304810625575</v>
@@ -4333,22 +4333,22 @@
         <v>2.249304810625575</v>
       </c>
       <c r="K2" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="L2" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M2" t="n">
-        <v>85.75474590510004</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N2" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O2" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="P2" t="n">
-        <v>85.75474590510004</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q2" t="n">
         <v>112.4652405312787</v>
@@ -4372,7 +4372,7 @@
         <v>112.4652405312787</v>
       </c>
       <c r="X2" t="n">
-        <v>104.78564573943</v>
+        <v>104.7856457394301</v>
       </c>
       <c r="Y2" t="n">
         <v>103.4887797347244</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.0649272658043</v>
+        <v>87.45024460704886</v>
       </c>
       <c r="C3" t="n">
-        <v>84.0649272658043</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="D3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E3" t="n">
-        <v>84.0649272658043</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F3" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G3" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H3" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="I3" t="n">
-        <v>2.249304810625575</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="J3" t="n">
-        <v>30.08445184211706</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="K3" t="n">
-        <v>30.08445184211706</v>
+        <v>9.695947772537416</v>
       </c>
       <c r="L3" t="n">
-        <v>57.91959887360855</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M3" t="n">
-        <v>85.75474590510004</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N3" t="n">
-        <v>85.75474590510004</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O3" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P3" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q3" t="n">
         <v>112.4652405312787</v>
@@ -4436,25 +4436,25 @@
         <v>112.4652405312787</v>
       </c>
       <c r="S3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="W3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="X3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Y3" t="n">
-        <v>84.0649272658043</v>
+        <v>112.4652405312787</v>
       </c>
     </row>
     <row r="4">
@@ -4464,55 +4464,55 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="C4" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="D4" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="E4" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F4" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="G4" t="n">
-        <v>59.04993134157444</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="H4" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="I4" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J4" t="n">
-        <v>30.08445184211706</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="K4" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L4" t="n">
         <v>56.79494646829576</v>
       </c>
       <c r="M4" t="n">
-        <v>84.63009349978725</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N4" t="n">
         <v>84.63009349978725</v>
       </c>
       <c r="O4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P4" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q4" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R4" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="S4" t="n">
         <v>87.45024460704886</v>
@@ -4524,16 +4524,16 @@
         <v>87.45024460704886</v>
       </c>
       <c r="V4" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="W4" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X4" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="Y4" t="n">
-        <v>87.45024460704886</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="5">
@@ -4570,25 +4570,25 @@
         <v>30.08445184211706</v>
       </c>
       <c r="K5" t="n">
-        <v>56.79494646829576</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="L5" t="n">
-        <v>56.79494646829576</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="M5" t="n">
-        <v>56.79494646829576</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="N5" t="n">
-        <v>56.79494646829576</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="O5" t="n">
+        <v>30.08445184211706</v>
+      </c>
+      <c r="P5" t="n">
+        <v>57.91959887360855</v>
+      </c>
+      <c r="Q5" t="n">
         <v>84.63009349978725</v>
-      </c>
-      <c r="P5" t="n">
-        <v>112.4652405312787</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>112.4652405312787</v>
       </c>
       <c r="R5" t="n">
         <v>112.4652405312787</v>
@@ -4622,16 +4622,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C6" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D6" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E6" t="n">
-        <v>30.6496180761</v>
+        <v>2.249304810625575</v>
       </c>
       <c r="F6" t="n">
         <v>2.249304810625575</v>
@@ -4646,52 +4646,52 @@
         <v>9.695947772537416</v>
       </c>
       <c r="J6" t="n">
-        <v>9.695947772537416</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K6" t="n">
-        <v>9.695947772537416</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L6" t="n">
-        <v>9.695947772537416</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M6" t="n">
-        <v>9.695947772537416</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N6" t="n">
-        <v>9.695947772537416</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O6" t="n">
-        <v>28.95979943680427</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P6" t="n">
-        <v>56.79494646829576</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q6" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="R6" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="S6" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="T6" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="U6" t="n">
-        <v>87.45024460704886</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="V6" t="n">
         <v>87.45024460704886</v>
       </c>
       <c r="W6" t="n">
-        <v>87.45024460704886</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="X6" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
       <c r="Y6" t="n">
-        <v>59.04993134157444</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>84.0649272658043</v>
+      </c>
+      <c r="C7" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="F7" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="G7" t="n">
         <v>30.6496180761</v>
       </c>
-      <c r="C7" t="n">
+      <c r="H7" t="n">
         <v>30.6496180761</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30.6496180761</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2.249304810625575</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.249304810625575</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.249304810625575</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.249304810625575</v>
       </c>
       <c r="I7" t="n">
         <v>2.249304810625575</v>
@@ -4734,43 +4734,43 @@
         <v>57.91959887360855</v>
       </c>
       <c r="M7" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="N7" t="n">
-        <v>84.63009349978725</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="O7" t="n">
-        <v>84.63009349978725</v>
+        <v>85.75474590510004</v>
       </c>
       <c r="P7" t="n">
-        <v>84.63009349978725</v>
+        <v>112.4652405312787</v>
       </c>
       <c r="Q7" t="n">
         <v>112.4652405312787</v>
       </c>
       <c r="R7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="S7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="T7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="U7" t="n">
-        <v>112.4652405312787</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="V7" t="n">
         <v>84.0649272658043</v>
       </c>
       <c r="W7" t="n">
-        <v>55.66461400032987</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="X7" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
       <c r="Y7" t="n">
-        <v>30.6496180761</v>
+        <v>84.0649272658043</v>
       </c>
     </row>
     <row r="8">
@@ -4804,28 +4804,28 @@
         <v>2.249304810625575</v>
       </c>
       <c r="J8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="K8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="L8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="M8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="N8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="O8" t="n">
-        <v>30.08445184211706</v>
+        <v>28.95979943680427</v>
       </c>
       <c r="P8" t="n">
-        <v>57.91959887360854</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q8" t="n">
-        <v>85.75474590510002</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R8" t="n">
         <v>112.4652405312787</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="C9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="D9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="E9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="F9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="G9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
       <c r="H9" t="n">
         <v>2.249304810625575</v>
@@ -4886,25 +4886,25 @@
         <v>37.5310948040289</v>
       </c>
       <c r="K9" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="L9" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="M9" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="N9" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="O9" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="P9" t="n">
-        <v>65.36624183552038</v>
+        <v>56.79494646829576</v>
       </c>
       <c r="Q9" t="n">
-        <v>84.63009349978724</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="R9" t="n">
         <v>112.4652405312787</v>
@@ -4916,19 +4916,19 @@
         <v>87.45024460704886</v>
       </c>
       <c r="U9" t="n">
-        <v>59.04993134157443</v>
+        <v>59.04993134157444</v>
       </c>
       <c r="V9" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="W9" t="n">
+        <v>59.04993134157444</v>
+      </c>
+      <c r="X9" t="n">
         <v>30.6496180761</v>
       </c>
-      <c r="W9" t="n">
-        <v>2.249304810625575</v>
-      </c>
-      <c r="X9" t="n">
-        <v>2.249304810625575</v>
-      </c>
       <c r="Y9" t="n">
-        <v>2.249304810625575</v>
+        <v>30.6496180761</v>
       </c>
     </row>
     <row r="10">
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="C10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="D10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="E10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="F10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="G10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="H10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="I10" t="n">
         <v>2.249304810625575</v>
       </c>
       <c r="J10" t="n">
-        <v>28.95979943680426</v>
+        <v>30.08445184211706</v>
       </c>
       <c r="K10" t="n">
-        <v>56.79494646829575</v>
+        <v>57.91959887360855</v>
       </c>
       <c r="L10" t="n">
-        <v>84.63009349978724</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="M10" t="n">
-        <v>84.63009349978724</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="N10" t="n">
-        <v>84.63009349978724</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="O10" t="n">
-        <v>84.63009349978724</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="P10" t="n">
-        <v>112.4652405312787</v>
+        <v>84.63009349978725</v>
       </c>
       <c r="Q10" t="n">
         <v>112.4652405312787</v>
@@ -4989,25 +4989,25 @@
         <v>84.0649272658043</v>
       </c>
       <c r="S10" t="n">
-        <v>59.04993134157443</v>
+        <v>55.66461400032987</v>
       </c>
       <c r="T10" t="n">
-        <v>30.6496180761</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="U10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="V10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="W10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="X10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.249304810625575</v>
+        <v>27.26430073485544</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.78667760904443</v>
+        <v>1170.907669069715</v>
       </c>
       <c r="C11" t="n">
-        <v>50.78667760904443</v>
+        <v>1170.907669069715</v>
       </c>
       <c r="D11" t="n">
-        <v>50.78667760904443</v>
+        <v>1170.907669069715</v>
       </c>
       <c r="E11" t="n">
-        <v>42.31189103053817</v>
+        <v>744.9307292175723</v>
       </c>
       <c r="F11" t="n">
-        <v>42.31189103053817</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="G11" t="n">
-        <v>42.31189103053817</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="H11" t="n">
-        <v>42.31189103053817</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="I11" t="n">
         <v>83.27873986633745</v>
       </c>
       <c r="J11" t="n">
-        <v>219.6389544126144</v>
+        <v>219.6389544126146</v>
       </c>
       <c r="K11" t="n">
-        <v>432.2525774933684</v>
+        <v>432.2525774933686</v>
       </c>
       <c r="L11" t="n">
-        <v>702.0151138095605</v>
+        <v>702.0151138095607</v>
       </c>
       <c r="M11" t="n">
-        <v>1007.324196722082</v>
+        <v>1007.324196722083</v>
       </c>
       <c r="N11" t="n">
-        <v>1318.323243648508</v>
+        <v>1318.323243648509</v>
       </c>
       <c r="O11" t="n">
         <v>1609.823844813727</v>
       </c>
       <c r="P11" t="n">
-        <v>1853.0064511639</v>
+        <v>1853.006451163901</v>
       </c>
       <c r="Q11" t="n">
-        <v>2027.798389622783</v>
+        <v>2027.798389622784</v>
       </c>
       <c r="R11" t="n">
-        <v>2115.594551526909</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="S11" t="n">
-        <v>2115.594551526909</v>
+        <v>2061.168859236466</v>
       </c>
       <c r="T11" t="n">
-        <v>1903.377484778506</v>
+        <v>1848.951792488063</v>
       </c>
       <c r="U11" t="n">
-        <v>1645.181725651687</v>
+        <v>1590.756033361245</v>
       </c>
       <c r="V11" t="n">
-        <v>1287.692310777937</v>
+        <v>1590.756033361245</v>
       </c>
       <c r="W11" t="n">
-        <v>1287.692310777937</v>
+        <v>1590.756033361245</v>
       </c>
       <c r="X11" t="n">
-        <v>875.9723119456842</v>
+        <v>1590.756033361245</v>
       </c>
       <c r="Y11" t="n">
-        <v>470.6350419005745</v>
+        <v>1590.756033361245</v>
       </c>
     </row>
     <row r="12">
@@ -5111,37 +5111,37 @@
         <v>178.397372303974</v>
       </c>
       <c r="G12" t="n">
-        <v>85.40801183607854</v>
+        <v>85.40801183607857</v>
       </c>
       <c r="H12" t="n">
-        <v>42.31189103053817</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="I12" t="n">
-        <v>62.21943782055835</v>
+        <v>85.67674366497022</v>
       </c>
       <c r="J12" t="n">
-        <v>140.3767473128204</v>
+        <v>312.9875844198313</v>
       </c>
       <c r="K12" t="n">
-        <v>286.6601969659956</v>
+        <v>459.2710340730065</v>
       </c>
       <c r="L12" t="n">
-        <v>768.9500978532598</v>
+        <v>663.4945975683538</v>
       </c>
       <c r="M12" t="n">
-        <v>1010.414854927137</v>
+        <v>904.9593546422307</v>
       </c>
       <c r="N12" t="n">
-        <v>1260.611870418759</v>
+        <v>1155.156370133853</v>
       </c>
       <c r="O12" t="n">
-        <v>1485.882542919262</v>
+        <v>1380.427042634356</v>
       </c>
       <c r="P12" t="n">
-        <v>1663.54049454969</v>
+        <v>1558.084994264784</v>
       </c>
       <c r="Q12" t="n">
-        <v>1774.188260950484</v>
+        <v>1668.732760665578</v>
       </c>
       <c r="R12" t="n">
         <v>1815.523812931707</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>373.3812025459146</v>
+        <v>681.7195803880187</v>
       </c>
       <c r="C13" t="n">
-        <v>201.4086394248306</v>
+        <v>509.7470172669347</v>
       </c>
       <c r="D13" t="n">
-        <v>201.4086394248306</v>
+        <v>509.7470172669347</v>
       </c>
       <c r="E13" t="n">
-        <v>201.4086394248306</v>
+        <v>343.5388114197882</v>
       </c>
       <c r="F13" t="n">
-        <v>201.4086394248306</v>
+        <v>343.5388114197882</v>
       </c>
       <c r="G13" t="n">
-        <v>42.31189103053817</v>
+        <v>178.1742084042041</v>
       </c>
       <c r="H13" t="n">
-        <v>42.31189103053817</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="I13" t="n">
-        <v>42.31189103053817</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="J13" t="n">
         <v>161.6380467832711</v>
       </c>
       <c r="K13" t="n">
-        <v>242.4966554129782</v>
+        <v>489.7792645270004</v>
       </c>
       <c r="L13" t="n">
-        <v>350.8275279410139</v>
+        <v>974.499030646201</v>
       </c>
       <c r="M13" t="n">
-        <v>874.4371794439237</v>
+        <v>1089.248217607689</v>
       </c>
       <c r="N13" t="n">
-        <v>1385.767658018108</v>
+        <v>1202.545773339993</v>
       </c>
       <c r="O13" t="n">
-        <v>1864.817735831763</v>
+        <v>1681.595851153649</v>
       </c>
       <c r="P13" t="n">
-        <v>2066.731375476994</v>
+        <v>2066.731375476995</v>
       </c>
       <c r="Q13" t="n">
-        <v>2115.594551526909</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="R13" t="n">
-        <v>2108.679989574528</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="S13" t="n">
-        <v>2108.679989574528</v>
+        <v>1961.011021728611</v>
       </c>
       <c r="T13" t="n">
-        <v>1869.15348129485</v>
+        <v>1721.484513448933</v>
       </c>
       <c r="U13" t="n">
-        <v>1589.017707341891</v>
+        <v>1441.348739495974</v>
       </c>
       <c r="V13" t="n">
-        <v>1307.30623994992</v>
+        <v>1159.637272104003</v>
       </c>
       <c r="W13" t="n">
-        <v>1032.453836122433</v>
+        <v>1159.637272104003</v>
       </c>
       <c r="X13" t="n">
-        <v>789.8899395682382</v>
+        <v>1098.228317410342</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.5471712579803</v>
+        <v>871.8855491000843</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1743.60636349498</v>
+        <v>623.8177761705928</v>
       </c>
       <c r="C14" t="n">
-        <v>1316.70563350828</v>
+        <v>623.8177761705928</v>
       </c>
       <c r="D14" t="n">
-        <v>893.4130126932804</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="E14" t="n">
-        <v>467.436072841138</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="F14" t="n">
-        <v>42.31189103053819</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="G14" t="n">
-        <v>42.31189103053819</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="H14" t="n">
         <v>42.31189103053819</v>
       </c>
       <c r="I14" t="n">
-        <v>83.27873986633747</v>
+        <v>83.27873986633767</v>
       </c>
       <c r="J14" t="n">
-        <v>219.6389544126145</v>
+        <v>219.6389544126148</v>
       </c>
       <c r="K14" t="n">
-        <v>432.2525774933686</v>
+        <v>432.2525774933688</v>
       </c>
       <c r="L14" t="n">
-        <v>702.0151138095607</v>
+        <v>702.0151138095608</v>
       </c>
       <c r="M14" t="n">
         <v>1007.324196722083</v>
@@ -5305,25 +5305,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S14" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="T14" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="U14" t="n">
-        <v>2115.59455152691</v>
+        <v>1798.364459921706</v>
       </c>
       <c r="V14" t="n">
-        <v>2115.59455152691</v>
+        <v>1440.875045047955</v>
       </c>
       <c r="W14" t="n">
-        <v>2115.59455152691</v>
+        <v>1440.875045047955</v>
       </c>
       <c r="X14" t="n">
-        <v>2115.59455152691</v>
+        <v>1029.155046215702</v>
       </c>
       <c r="Y14" t="n">
-        <v>2115.59455152691</v>
+        <v>623.8177761705928</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>380.2957644982961</v>
+        <v>386.1462283770618</v>
       </c>
       <c r="C16" t="n">
-        <v>208.3232013772121</v>
+        <v>214.1736652559778</v>
       </c>
       <c r="D16" t="n">
-        <v>208.3232013772121</v>
+        <v>214.1736652559778</v>
       </c>
       <c r="E16" t="n">
-        <v>208.3232013772121</v>
+        <v>214.1736652559778</v>
       </c>
       <c r="F16" t="n">
-        <v>208.3232013772121</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="G16" t="n">
-        <v>42.95859836162808</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="H16" t="n">
         <v>42.31189103053819</v>
@@ -5436,52 +5436,52 @@
         <v>42.31189103053819</v>
       </c>
       <c r="J16" t="n">
-        <v>83.71633013505021</v>
+        <v>161.6380467832711</v>
       </c>
       <c r="K16" t="n">
-        <v>164.5749387647574</v>
+        <v>489.7792645270004</v>
       </c>
       <c r="L16" t="n">
-        <v>469.1182264019615</v>
+        <v>974.499030646201</v>
       </c>
       <c r="M16" t="n">
-        <v>992.7278779048715</v>
+        <v>1089.248217607689</v>
       </c>
       <c r="N16" t="n">
-        <v>1504.058356479056</v>
+        <v>1202.545773339993</v>
       </c>
       <c r="O16" t="n">
-        <v>1983.108434292712</v>
+        <v>1518.978732341505</v>
       </c>
       <c r="P16" t="n">
-        <v>2066.731375476995</v>
+        <v>1915.357878099096</v>
       </c>
       <c r="Q16" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="R16" t="n">
-        <v>2115.59455152691</v>
+        <v>2108.679989574529</v>
       </c>
       <c r="S16" t="n">
-        <v>2115.59455152691</v>
+        <v>2108.679989574529</v>
       </c>
       <c r="T16" t="n">
-        <v>1876.068043247231</v>
+        <v>1869.153481294851</v>
       </c>
       <c r="U16" t="n">
-        <v>1595.932269294273</v>
+        <v>1601.782733173038</v>
       </c>
       <c r="V16" t="n">
-        <v>1314.220801902302</v>
+        <v>1320.071265781067</v>
       </c>
       <c r="W16" t="n">
-        <v>1039.368398074815</v>
+        <v>1045.21886195358</v>
       </c>
       <c r="X16" t="n">
-        <v>796.8045015206197</v>
+        <v>802.6549653993854</v>
       </c>
       <c r="Y16" t="n">
-        <v>570.4617332103618</v>
+        <v>576.3121970891275</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.77382130622811</v>
+        <v>893.4130126932804</v>
       </c>
       <c r="C17" t="n">
-        <v>65.77382130622811</v>
+        <v>893.4130126932804</v>
       </c>
       <c r="D17" t="n">
-        <v>65.77382130622811</v>
+        <v>893.4130126932804</v>
       </c>
       <c r="E17" t="n">
-        <v>65.77382130622811</v>
+        <v>467.436072841138</v>
       </c>
       <c r="F17" t="n">
-        <v>65.77382130622811</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="G17" t="n">
-        <v>65.77382130622811</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="H17" t="n">
         <v>42.31189103053819</v>
@@ -5515,13 +5515,13 @@
         <v>83.27873986633767</v>
       </c>
       <c r="J17" t="n">
-        <v>219.6389544126146</v>
+        <v>219.6389544126148</v>
       </c>
       <c r="K17" t="n">
-        <v>432.2525774933686</v>
+        <v>432.2525774933688</v>
       </c>
       <c r="L17" t="n">
-        <v>702.0151138095607</v>
+        <v>702.0151138095608</v>
       </c>
       <c r="M17" t="n">
         <v>1007.324196722083</v>
@@ -5551,16 +5551,16 @@
         <v>2056.560219048524</v>
       </c>
       <c r="V17" t="n">
-        <v>1699.070804174774</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="W17" t="n">
-        <v>1302.679454475121</v>
+        <v>1710.470281570643</v>
       </c>
       <c r="X17" t="n">
-        <v>890.9594556428679</v>
+        <v>1298.75028273839</v>
       </c>
       <c r="Y17" t="n">
-        <v>485.6221855977582</v>
+        <v>893.4130126932804</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>42.31189103053819</v>
       </c>
       <c r="I18" t="n">
-        <v>62.21943782055837</v>
+        <v>85.67674366497022</v>
       </c>
       <c r="J18" t="n">
-        <v>140.3767473128204</v>
+        <v>312.9875844198311</v>
       </c>
       <c r="K18" t="n">
-        <v>286.6601969659957</v>
+        <v>459.2710340730064</v>
       </c>
       <c r="L18" t="n">
-        <v>490.883760461343</v>
+        <v>663.4945975683537</v>
       </c>
       <c r="M18" t="n">
-        <v>732.3485175352199</v>
+        <v>904.9593546422307</v>
       </c>
       <c r="N18" t="n">
-        <v>982.5455330268422</v>
+        <v>1155.156370133853</v>
       </c>
       <c r="O18" t="n">
-        <v>1207.816205527346</v>
+        <v>1380.427042634356</v>
       </c>
       <c r="P18" t="n">
-        <v>1385.474157157773</v>
+        <v>1558.084994264784</v>
       </c>
       <c r="Q18" t="n">
-        <v>1774.188260950484</v>
+        <v>1668.732760665578</v>
       </c>
       <c r="R18" t="n">
         <v>1815.523812931707</v>
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>380.2957644982961</v>
+        <v>386.1462283770618</v>
       </c>
       <c r="C19" t="n">
         <v>214.1736652559778</v>
@@ -5676,49 +5676,49 @@
         <v>161.6380467832711</v>
       </c>
       <c r="K19" t="n">
-        <v>242.4966554129783</v>
+        <v>489.7792645270004</v>
       </c>
       <c r="L19" t="n">
-        <v>350.827527941014</v>
+        <v>598.110137055036</v>
       </c>
       <c r="M19" t="n">
-        <v>874.4371794439242</v>
+        <v>1121.719788557946</v>
       </c>
       <c r="N19" t="n">
-        <v>1385.767658018108</v>
+        <v>1569.004476208952</v>
       </c>
       <c r="O19" t="n">
-        <v>1831.734936914812</v>
+        <v>1670.352229719404</v>
       </c>
       <c r="P19" t="n">
-        <v>1915.357878099096</v>
+        <v>2066.731375476995</v>
       </c>
       <c r="Q19" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="R19" t="n">
-        <v>2115.59455152691</v>
+        <v>2108.679989574529</v>
       </c>
       <c r="S19" t="n">
-        <v>2115.59455152691</v>
+        <v>1954.096459776231</v>
       </c>
       <c r="T19" t="n">
-        <v>1876.068043247231</v>
+        <v>1881.918507125997</v>
       </c>
       <c r="U19" t="n">
-        <v>1595.932269294273</v>
+        <v>1601.782733173038</v>
       </c>
       <c r="V19" t="n">
-        <v>1314.220801902302</v>
+        <v>1320.071265781067</v>
       </c>
       <c r="W19" t="n">
-        <v>1039.368398074815</v>
+        <v>1045.21886195358</v>
       </c>
       <c r="X19" t="n">
-        <v>796.8045015206197</v>
+        <v>802.6549653993854</v>
       </c>
       <c r="Y19" t="n">
-        <v>570.4617332103618</v>
+        <v>576.3121970891275</v>
       </c>
     </row>
     <row r="20">
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1695.746187235379</v>
+        <v>165.0674770531601</v>
       </c>
       <c r="C20" t="n">
-        <v>1268.84545724868</v>
+        <v>165.0674770531601</v>
       </c>
       <c r="D20" t="n">
-        <v>845.5528364336799</v>
+        <v>165.0674770531601</v>
       </c>
       <c r="E20" t="n">
-        <v>845.5528364336799</v>
+        <v>165.0674770531601</v>
       </c>
       <c r="F20" t="n">
-        <v>420.4286546230801</v>
+        <v>165.0674770531601</v>
       </c>
       <c r="G20" t="n">
-        <v>319.8065474069725</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="H20" t="n">
         <v>42.31189103053819</v>
       </c>
       <c r="I20" t="n">
-        <v>83.27873986633747</v>
+        <v>83.27873986633767</v>
       </c>
       <c r="J20" t="n">
-        <v>219.6389544126145</v>
+        <v>219.6389544126148</v>
       </c>
       <c r="K20" t="n">
         <v>432.2525774933688</v>
@@ -5779,25 +5779,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S20" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="T20" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="U20" t="n">
-        <v>2115.59455152691</v>
+        <v>1798.364459921706</v>
       </c>
       <c r="V20" t="n">
-        <v>2115.59455152691</v>
+        <v>1798.364459921706</v>
       </c>
       <c r="W20" t="n">
-        <v>2115.59455152691</v>
+        <v>1401.973110222053</v>
       </c>
       <c r="X20" t="n">
-        <v>2115.59455152691</v>
+        <v>990.2531113897999</v>
       </c>
       <c r="Y20" t="n">
-        <v>2115.59455152691</v>
+        <v>584.9158413446902</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>42.31189103053819</v>
       </c>
       <c r="I21" t="n">
-        <v>62.21943782055837</v>
+        <v>85.67674366497022</v>
       </c>
       <c r="J21" t="n">
-        <v>418.443084704737</v>
+        <v>312.9875844198311</v>
       </c>
       <c r="K21" t="n">
-        <v>564.7265343579122</v>
+        <v>459.2710340730064</v>
       </c>
       <c r="L21" t="n">
-        <v>768.9500978532595</v>
+        <v>663.4945975683537</v>
       </c>
       <c r="M21" t="n">
-        <v>1010.414854927137</v>
+        <v>904.9593546422307</v>
       </c>
       <c r="N21" t="n">
-        <v>1260.611870418759</v>
+        <v>1155.156370133853</v>
       </c>
       <c r="O21" t="n">
-        <v>1485.882542919262</v>
+        <v>1380.427042634356</v>
       </c>
       <c r="P21" t="n">
-        <v>1663.54049454969</v>
+        <v>1558.084994264784</v>
       </c>
       <c r="Q21" t="n">
-        <v>1774.188260950484</v>
+        <v>1668.732760665578</v>
       </c>
       <c r="R21" t="n">
         <v>1815.523812931707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>655.1481683257832</v>
+        <v>452.0550030102556</v>
       </c>
       <c r="C22" t="n">
-        <v>483.1756052046992</v>
+        <v>452.0550030102556</v>
       </c>
       <c r="D22" t="n">
-        <v>319.8588323314699</v>
+        <v>452.0550030102556</v>
       </c>
       <c r="E22" t="n">
-        <v>319.8588323314699</v>
+        <v>285.8467971631092</v>
       </c>
       <c r="F22" t="n">
-        <v>147.9970581060303</v>
+        <v>113.9850229376696</v>
       </c>
       <c r="G22" t="n">
-        <v>147.9970581060303</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="H22" t="n">
         <v>42.31189103053819</v>
@@ -5919,16 +5919,16 @@
         <v>272.9058112927931</v>
       </c>
       <c r="M22" t="n">
-        <v>796.5154627957032</v>
+        <v>679.971673331564</v>
       </c>
       <c r="N22" t="n">
-        <v>1307.845941369887</v>
+        <v>1191.302151905748</v>
       </c>
       <c r="O22" t="n">
-        <v>1786.896019183543</v>
+        <v>1670.352229719404</v>
       </c>
       <c r="P22" t="n">
-        <v>1915.357878099096</v>
+        <v>2066.731375476995</v>
       </c>
       <c r="Q22" t="n">
         <v>2115.59455152691</v>
@@ -5937,25 +5937,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S22" t="n">
-        <v>2115.59455152691</v>
+        <v>1961.011021728611</v>
       </c>
       <c r="T22" t="n">
-        <v>1876.068043247231</v>
+        <v>1721.484513448933</v>
       </c>
       <c r="U22" t="n">
-        <v>1595.932269294273</v>
+        <v>1441.348739495974</v>
       </c>
       <c r="V22" t="n">
-        <v>1314.220801902302</v>
+        <v>1159.637272104003</v>
       </c>
       <c r="W22" t="n">
-        <v>1314.220801902302</v>
+        <v>884.7848682765161</v>
       </c>
       <c r="X22" t="n">
-        <v>1071.656905348107</v>
+        <v>642.2209717223212</v>
       </c>
       <c r="Y22" t="n">
-        <v>845.3141370378489</v>
+        <v>642.2209717223212</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>484.1703045102212</v>
+        <v>1374.773000112389</v>
       </c>
       <c r="C23" t="n">
-        <v>60.08807721212248</v>
+        <v>947.8722701256893</v>
       </c>
       <c r="D23" t="n">
-        <v>60.08807721212248</v>
+        <v>911.1891988748647</v>
       </c>
       <c r="E23" t="n">
-        <v>60.08807721212248</v>
+        <v>485.2122590227223</v>
       </c>
       <c r="F23" t="n">
         <v>60.08807721212248</v>
@@ -5989,25 +5989,25 @@
         <v>101.0549260479218</v>
       </c>
       <c r="J23" t="n">
-        <v>237.4151405941988</v>
+        <v>616.5993561290938</v>
       </c>
       <c r="K23" t="n">
-        <v>847.2344673887595</v>
+        <v>829.2129792098478</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.824422888775</v>
+        <v>1098.97551552604</v>
       </c>
       <c r="M23" t="n">
-        <v>1896.133505801297</v>
+        <v>1404.284598438562</v>
       </c>
       <c r="N23" t="n">
-        <v>2207.132552727723</v>
+        <v>1715.283645364988</v>
       </c>
       <c r="O23" t="n">
-        <v>2498.633153892942</v>
+        <v>2006.784246530206</v>
       </c>
       <c r="P23" t="n">
-        <v>2741.815760243115</v>
+        <v>2249.96685288038</v>
       </c>
       <c r="Q23" t="n">
         <v>2916.607698701998</v>
@@ -6016,25 +6016,25 @@
         <v>3004.403860606124</v>
       </c>
       <c r="S23" t="n">
-        <v>2945.369528127739</v>
+        <v>3004.403860606124</v>
       </c>
       <c r="T23" t="n">
-        <v>2733.152461379336</v>
+        <v>2792.186793857721</v>
       </c>
       <c r="U23" t="n">
-        <v>2474.956702252517</v>
+        <v>2533.991034730902</v>
       </c>
       <c r="V23" t="n">
-        <v>2117.467287378767</v>
+        <v>2176.501619857152</v>
       </c>
       <c r="W23" t="n">
-        <v>1721.075937679114</v>
+        <v>1780.110270157499</v>
       </c>
       <c r="X23" t="n">
-        <v>1309.355938846861</v>
+        <v>1780.110270157499</v>
       </c>
       <c r="Y23" t="n">
-        <v>904.0186688017512</v>
+        <v>1374.773000112389</v>
       </c>
     </row>
     <row r="24">
@@ -6068,7 +6068,7 @@
         <v>79.99562400214266</v>
       </c>
       <c r="J24" t="n">
-        <v>158.1529334944047</v>
+        <v>436.2192708863213</v>
       </c>
       <c r="K24" t="n">
         <v>582.5027205394965</v>
@@ -6126,46 +6126,46 @@
         <v>1107.606981826832</v>
       </c>
       <c r="C25" t="n">
-        <v>935.6344187057484</v>
+        <v>935.6344187057479</v>
       </c>
       <c r="D25" t="n">
-        <v>772.3176458325191</v>
+        <v>772.3176458325186</v>
       </c>
       <c r="E25" t="n">
-        <v>606.1094399853727</v>
+        <v>606.1094399853721</v>
       </c>
       <c r="F25" t="n">
-        <v>434.2476657599331</v>
+        <v>434.2476657599326</v>
       </c>
       <c r="G25" t="n">
-        <v>268.883062744349</v>
+        <v>268.8830627443485</v>
       </c>
       <c r="H25" t="n">
-        <v>133.020745370683</v>
+        <v>133.0207453706826</v>
       </c>
       <c r="I25" t="n">
         <v>60.08807721212248</v>
       </c>
       <c r="J25" t="n">
-        <v>101.4925163166345</v>
+        <v>179.4142329648554</v>
       </c>
       <c r="K25" t="n">
-        <v>429.6337340603637</v>
+        <v>507.5554507085847</v>
       </c>
       <c r="L25" t="n">
-        <v>914.3535001795644</v>
+        <v>992.2752168277854</v>
       </c>
       <c r="M25" t="n">
-        <v>1442.638167603874</v>
+        <v>1520.559884252095</v>
       </c>
       <c r="N25" t="n">
-        <v>1953.968646178058</v>
+        <v>2031.890362826279</v>
       </c>
       <c r="O25" t="n">
-        <v>2433.018723991714</v>
+        <v>2510.940440639935</v>
       </c>
       <c r="P25" t="n">
-        <v>2829.397869749305</v>
+        <v>2907.319586397526</v>
       </c>
       <c r="Q25" t="n">
         <v>3004.403860606124</v>
@@ -6174,19 +6174,19 @@
         <v>2997.489298653744</v>
       </c>
       <c r="S25" t="n">
-        <v>2842.905768855446</v>
+        <v>2842.905768855445</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.379260575768</v>
+        <v>2603.379260575767</v>
       </c>
       <c r="U25" t="n">
         <v>2323.243486622809</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.532019230838</v>
+        <v>2041.532019230837</v>
       </c>
       <c r="W25" t="n">
-        <v>1766.679615403351</v>
+        <v>1766.67961540335</v>
       </c>
       <c r="X25" t="n">
         <v>1524.115718849156</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>908.504879837722</v>
+        <v>904.0186688017512</v>
       </c>
       <c r="C26" t="n">
-        <v>908.504879837722</v>
+        <v>739.9324175394933</v>
       </c>
       <c r="D26" t="n">
-        <v>485.2122590227223</v>
+        <v>739.9324175394933</v>
       </c>
       <c r="E26" t="n">
-        <v>485.2122590227223</v>
+        <v>739.9324175394933</v>
       </c>
       <c r="F26" t="n">
-        <v>60.08807721212248</v>
+        <v>739.9324175394933</v>
       </c>
       <c r="G26" t="n">
-        <v>60.08807721212248</v>
+        <v>337.5827335885568</v>
       </c>
       <c r="H26" t="n">
         <v>60.08807721212248</v>
@@ -6226,25 +6226,25 @@
         <v>101.0549260479218</v>
       </c>
       <c r="J26" t="n">
-        <v>464.3606978513428</v>
+        <v>629.144359301825</v>
       </c>
       <c r="K26" t="n">
-        <v>676.9743209320968</v>
+        <v>1168.823228294832</v>
       </c>
       <c r="L26" t="n">
-        <v>946.7368572482889</v>
+        <v>1438.585764611024</v>
       </c>
       <c r="M26" t="n">
-        <v>1252.045940160811</v>
+        <v>1743.894847523546</v>
       </c>
       <c r="N26" t="n">
-        <v>1563.044987087237</v>
+        <v>2054.893894449972</v>
       </c>
       <c r="O26" t="n">
-        <v>1854.545588252455</v>
+        <v>2346.39449561519</v>
       </c>
       <c r="P26" t="n">
-        <v>2097.728194602629</v>
+        <v>2589.577101965364</v>
       </c>
       <c r="Q26" t="n">
         <v>2764.369040424247</v>
@@ -6256,22 +6256,22 @@
         <v>2945.369528127739</v>
       </c>
       <c r="T26" t="n">
-        <v>2945.369528127739</v>
+        <v>2733.152461379336</v>
       </c>
       <c r="U26" t="n">
-        <v>2687.17376900092</v>
+        <v>2474.956702252517</v>
       </c>
       <c r="V26" t="n">
-        <v>2329.68435412717</v>
+        <v>2117.467287378767</v>
       </c>
       <c r="W26" t="n">
-        <v>1933.293004427517</v>
+        <v>1721.075937679114</v>
       </c>
       <c r="X26" t="n">
-        <v>1521.573005595264</v>
+        <v>1309.355938846861</v>
       </c>
       <c r="Y26" t="n">
-        <v>1116.235735550154</v>
+        <v>904.0186688017512</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>60.08807721212248</v>
       </c>
       <c r="I27" t="n">
-        <v>79.99562400214266</v>
+        <v>103.4529298465545</v>
       </c>
       <c r="J27" t="n">
-        <v>158.1529334944047</v>
+        <v>181.6102393388166</v>
       </c>
       <c r="K27" t="n">
-        <v>304.43638314758</v>
+        <v>327.8936889919918</v>
       </c>
       <c r="L27" t="n">
-        <v>508.6599466429273</v>
+        <v>532.1172524873391</v>
       </c>
       <c r="M27" t="n">
-        <v>750.1247037168042</v>
+        <v>773.5820095612161</v>
       </c>
       <c r="N27" t="n">
-        <v>1000.321719208427</v>
+        <v>1023.779025052838</v>
       </c>
       <c r="O27" t="n">
-        <v>1225.59239170893</v>
+        <v>1249.049697553342</v>
       </c>
       <c r="P27" t="n">
-        <v>1681.316680731274</v>
+        <v>1426.70764918377</v>
       </c>
       <c r="Q27" t="n">
-        <v>1791.964447132068</v>
+        <v>1686.508946847162</v>
       </c>
       <c r="R27" t="n">
         <v>1833.299999113292</v>
@@ -6393,16 +6393,16 @@
         <v>992.2752168277854</v>
       </c>
       <c r="M28" t="n">
-        <v>1417.407485032879</v>
+        <v>1520.559884252095</v>
       </c>
       <c r="N28" t="n">
-        <v>1928.737963607064</v>
+        <v>2031.890362826279</v>
       </c>
       <c r="O28" t="n">
-        <v>2407.788041420719</v>
+        <v>2510.940440639935</v>
       </c>
       <c r="P28" t="n">
-        <v>2804.16718717831</v>
+        <v>2907.319586397526</v>
       </c>
       <c r="Q28" t="n">
         <v>3004.403860606124</v>
@@ -6417,7 +6417,7 @@
         <v>2603.379260575767</v>
       </c>
       <c r="U28" t="n">
-        <v>2323.243486622809</v>
+        <v>2323.243486622808</v>
       </c>
       <c r="V28" t="n">
         <v>2041.532019230837</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2434.69737898397</v>
+        <v>2441.226890003935</v>
       </c>
       <c r="C29" t="n">
-        <v>2007.79664899727</v>
+        <v>2014.326160017235</v>
       </c>
       <c r="D29" t="n">
-        <v>1584.504028182271</v>
+        <v>1591.033539202236</v>
       </c>
       <c r="E29" t="n">
-        <v>1158.527088330128</v>
+        <v>1165.056599350093</v>
       </c>
       <c r="F29" t="n">
-        <v>733.4029065195284</v>
+        <v>739.9324175394933</v>
       </c>
       <c r="G29" t="n">
-        <v>331.0532225685919</v>
+        <v>337.5827335885568</v>
       </c>
       <c r="H29" t="n">
         <v>60.08807721212248</v>
@@ -6463,25 +6463,25 @@
         <v>101.0549260479218</v>
       </c>
       <c r="J29" t="n">
-        <v>237.4151405941988</v>
+        <v>629.144359301825</v>
       </c>
       <c r="K29" t="n">
-        <v>450.0287636749528</v>
+        <v>841.757982382579</v>
       </c>
       <c r="L29" t="n">
-        <v>719.7912999911448</v>
+        <v>1111.520518698771</v>
       </c>
       <c r="M29" t="n">
-        <v>1463.381255491161</v>
+        <v>1416.829601611293</v>
       </c>
       <c r="N29" t="n">
-        <v>1774.380302417587</v>
+        <v>1727.828648537719</v>
       </c>
       <c r="O29" t="n">
-        <v>2065.880903582805</v>
+        <v>2019.329249702937</v>
       </c>
       <c r="P29" t="n">
-        <v>2309.063509932978</v>
+        <v>2262.511856053111</v>
       </c>
       <c r="Q29" t="n">
         <v>2916.607698701998</v>
@@ -6490,25 +6490,25 @@
         <v>3004.403860606124</v>
       </c>
       <c r="S29" t="n">
-        <v>3004.403860606124</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="T29" t="n">
-        <v>2792.186793857721</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="U29" t="n">
-        <v>2792.186793857721</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="V29" t="n">
-        <v>2434.69737898397</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="W29" t="n">
-        <v>2434.69737898397</v>
+        <v>2945.369528127739</v>
       </c>
       <c r="X29" t="n">
-        <v>2434.69737898397</v>
+        <v>2533.649529295486</v>
       </c>
       <c r="Y29" t="n">
-        <v>2434.69737898397</v>
+        <v>2533.649529295486</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>60.08807721212248</v>
       </c>
       <c r="I30" t="n">
-        <v>79.99562400214266</v>
+        <v>103.4529298465545</v>
       </c>
       <c r="J30" t="n">
-        <v>436.2192708863213</v>
+        <v>330.7637706014154</v>
       </c>
       <c r="K30" t="n">
-        <v>582.5027205394965</v>
+        <v>477.0472202545907</v>
       </c>
       <c r="L30" t="n">
-        <v>786.7262840348438</v>
+        <v>681.270783749938</v>
       </c>
       <c r="M30" t="n">
-        <v>1028.191041108721</v>
+        <v>922.735540823815</v>
       </c>
       <c r="N30" t="n">
-        <v>1278.388056600343</v>
+        <v>1172.932556315437</v>
       </c>
       <c r="O30" t="n">
-        <v>1503.658729100847</v>
+        <v>1398.203228815941</v>
       </c>
       <c r="P30" t="n">
-        <v>1681.316680731274</v>
+        <v>1575.861180446369</v>
       </c>
       <c r="Q30" t="n">
-        <v>1791.964447132068</v>
+        <v>1686.508946847162</v>
       </c>
       <c r="R30" t="n">
         <v>1833.299999113292</v>
@@ -6603,43 +6603,43 @@
         <v>935.634418705748</v>
       </c>
       <c r="D31" t="n">
-        <v>772.3176458325187</v>
+        <v>772.3176458325186</v>
       </c>
       <c r="E31" t="n">
-        <v>606.1094399853722</v>
+        <v>606.1094399853721</v>
       </c>
       <c r="F31" t="n">
-        <v>434.2476657599326</v>
+        <v>434.2476657599325</v>
       </c>
       <c r="G31" t="n">
         <v>268.8830627443485</v>
       </c>
       <c r="H31" t="n">
-        <v>133.0207453706826</v>
+        <v>133.0207453706825</v>
       </c>
       <c r="I31" t="n">
         <v>60.08807721212248</v>
       </c>
       <c r="J31" t="n">
-        <v>101.4925163166345</v>
+        <v>179.4142329648554</v>
       </c>
       <c r="K31" t="n">
-        <v>429.6337340603637</v>
+        <v>507.5554507085847</v>
       </c>
       <c r="L31" t="n">
-        <v>914.3535001795644</v>
+        <v>992.2752168277854</v>
       </c>
       <c r="M31" t="n">
-        <v>1442.638167603874</v>
+        <v>1520.559884252095</v>
       </c>
       <c r="N31" t="n">
-        <v>1953.968646178058</v>
+        <v>2031.890362826279</v>
       </c>
       <c r="O31" t="n">
-        <v>2433.018723991714</v>
+        <v>2510.940440639935</v>
       </c>
       <c r="P31" t="n">
-        <v>2829.397869749305</v>
+        <v>2907.319586397526</v>
       </c>
       <c r="Q31" t="n">
         <v>3004.403860606124</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1592.810087378336</v>
+        <v>2038.877206052999</v>
       </c>
       <c r="C32" t="n">
-        <v>1165.909357391636</v>
+        <v>1611.976476066299</v>
       </c>
       <c r="D32" t="n">
-        <v>1165.909357391636</v>
+        <v>1188.683855251299</v>
       </c>
       <c r="E32" t="n">
-        <v>739.9324175394933</v>
+        <v>762.7069153991565</v>
       </c>
       <c r="F32" t="n">
-        <v>739.9324175394933</v>
+        <v>337.5827335885568</v>
       </c>
       <c r="G32" t="n">
         <v>337.5827335885568</v>
@@ -6703,25 +6703,25 @@
         <v>629.144359301825</v>
       </c>
       <c r="K32" t="n">
-        <v>841.757982382579</v>
+        <v>847.2344673887595</v>
       </c>
       <c r="L32" t="n">
-        <v>1111.520518698771</v>
+        <v>1590.824422888775</v>
       </c>
       <c r="M32" t="n">
-        <v>1416.829601611293</v>
+        <v>1896.133505801297</v>
       </c>
       <c r="N32" t="n">
-        <v>1727.828648537719</v>
+        <v>2207.132552727723</v>
       </c>
       <c r="O32" t="n">
-        <v>2019.329249702937</v>
+        <v>2498.633153892942</v>
       </c>
       <c r="P32" t="n">
-        <v>2262.511856053111</v>
+        <v>2741.815760243115</v>
       </c>
       <c r="Q32" t="n">
-        <v>2764.369040424247</v>
+        <v>2916.607698701998</v>
       </c>
       <c r="R32" t="n">
         <v>3004.403860606124</v>
@@ -6733,19 +6733,19 @@
         <v>2733.152461379336</v>
       </c>
       <c r="U32" t="n">
-        <v>2474.956702252517</v>
+        <v>2733.152461379336</v>
       </c>
       <c r="V32" t="n">
-        <v>2400.921435910242</v>
+        <v>2733.152461379336</v>
       </c>
       <c r="W32" t="n">
-        <v>2004.530086210588</v>
+        <v>2733.152461379336</v>
       </c>
       <c r="X32" t="n">
-        <v>1592.810087378336</v>
+        <v>2321.432462547083</v>
       </c>
       <c r="Y32" t="n">
-        <v>1592.810087378336</v>
+        <v>2321.432462547083</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>79.99562400214266</v>
       </c>
       <c r="J33" t="n">
-        <v>158.1529334944047</v>
+        <v>436.2192708863213</v>
       </c>
       <c r="K33" t="n">
-        <v>304.43638314758</v>
+        <v>582.5027205394965</v>
       </c>
       <c r="L33" t="n">
-        <v>508.6599466429273</v>
+        <v>786.7262840348438</v>
       </c>
       <c r="M33" t="n">
         <v>1028.191041108721</v>
@@ -6837,16 +6837,16 @@
         <v>1107.606981826832</v>
       </c>
       <c r="C34" t="n">
-        <v>935.6344187057482</v>
+        <v>935.6344187057479</v>
       </c>
       <c r="D34" t="n">
-        <v>772.3176458325189</v>
+        <v>772.3176458325186</v>
       </c>
       <c r="E34" t="n">
-        <v>606.1094399853724</v>
+        <v>606.1094399853721</v>
       </c>
       <c r="F34" t="n">
-        <v>434.2476657599328</v>
+        <v>434.2476657599326</v>
       </c>
       <c r="G34" t="n">
         <v>268.8830627443485</v>
@@ -6858,31 +6858,31 @@
         <v>60.08807721212248</v>
       </c>
       <c r="J34" t="n">
-        <v>101.4925163166345</v>
+        <v>179.4142329648554</v>
       </c>
       <c r="K34" t="n">
-        <v>429.6337340603637</v>
+        <v>507.5554507085847</v>
       </c>
       <c r="L34" t="n">
-        <v>914.3535001795644</v>
+        <v>992.2752168277854</v>
       </c>
       <c r="M34" t="n">
-        <v>1442.638167603874</v>
+        <v>1520.559884252095</v>
       </c>
       <c r="N34" t="n">
-        <v>1953.968646178058</v>
+        <v>2031.890362826279</v>
       </c>
       <c r="O34" t="n">
-        <v>2433.018723991714</v>
+        <v>2510.940440639935</v>
       </c>
       <c r="P34" t="n">
-        <v>2829.397869749305</v>
+        <v>2907.319586397526</v>
       </c>
       <c r="Q34" t="n">
         <v>3004.403860606124</v>
       </c>
       <c r="R34" t="n">
-        <v>2997.489298653743</v>
+        <v>2997.489298653744</v>
       </c>
       <c r="S34" t="n">
         <v>2842.905768855445</v>
@@ -6894,10 +6894,10 @@
         <v>2323.243486622809</v>
       </c>
       <c r="V34" t="n">
-        <v>2041.532019230838</v>
+        <v>2041.532019230837</v>
       </c>
       <c r="W34" t="n">
-        <v>1766.679615403351</v>
+        <v>1766.67961540335</v>
       </c>
       <c r="X34" t="n">
         <v>1524.115718849156</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1147.280413168509</v>
+        <v>669.7964685490095</v>
       </c>
       <c r="C35" t="n">
-        <v>1147.280413168509</v>
+        <v>669.7964685490095</v>
       </c>
       <c r="D35" t="n">
-        <v>1147.280413168509</v>
+        <v>669.7964685490095</v>
       </c>
       <c r="E35" t="n">
-        <v>1147.280413168509</v>
+        <v>669.7964685490095</v>
       </c>
       <c r="F35" t="n">
-        <v>722.1562313579091</v>
+        <v>669.7964685490095</v>
       </c>
       <c r="G35" t="n">
-        <v>319.8065474069725</v>
+        <v>267.4467845980731</v>
       </c>
       <c r="H35" t="n">
-        <v>42.31189103053823</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I35" t="n">
-        <v>83.27873986633756</v>
+        <v>83.27873986633753</v>
       </c>
       <c r="J35" t="n">
-        <v>219.6389544126145</v>
+        <v>219.6389544126156</v>
       </c>
       <c r="K35" t="n">
-        <v>432.2525774933686</v>
+        <v>432.2525774933696</v>
       </c>
       <c r="L35" t="n">
-        <v>702.0151138095607</v>
+        <v>702.0151138095617</v>
       </c>
       <c r="M35" t="n">
-        <v>1007.324196722085</v>
+        <v>1007.324196722084</v>
       </c>
       <c r="N35" t="n">
-        <v>1318.323243648511</v>
+        <v>1318.32324364851</v>
       </c>
       <c r="O35" t="n">
-        <v>1609.823844813729</v>
+        <v>1609.823844813728</v>
       </c>
       <c r="P35" t="n">
-        <v>1853.006451163903</v>
+        <v>1853.006451163902</v>
       </c>
       <c r="Q35" t="n">
-        <v>2027.798389622786</v>
+        <v>2027.798389622785</v>
       </c>
       <c r="R35" t="n">
-        <v>2115.594551526912</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="S35" t="n">
-        <v>2115.594551526912</v>
+        <v>2056.560219048525</v>
       </c>
       <c r="T35" t="n">
-        <v>2115.594551526912</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="U35" t="n">
-        <v>1949.009032913272</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="V35" t="n">
-        <v>1949.009032913272</v>
+        <v>1486.853737426372</v>
       </c>
       <c r="W35" t="n">
-        <v>1552.617683213618</v>
+        <v>1486.853737426372</v>
       </c>
       <c r="X35" t="n">
-        <v>1552.617683213618</v>
+        <v>1075.133738594119</v>
       </c>
       <c r="Y35" t="n">
-        <v>1147.280413168509</v>
+        <v>669.7964685490095</v>
       </c>
     </row>
     <row r="36">
@@ -7007,19 +7007,19 @@
         <v>178.3973723039741</v>
       </c>
       <c r="G36" t="n">
-        <v>85.40801183607861</v>
+        <v>85.4080118360786</v>
       </c>
       <c r="H36" t="n">
-        <v>42.31189103053823</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I36" t="n">
-        <v>62.21943782055841</v>
+        <v>62.2194378205584</v>
       </c>
       <c r="J36" t="n">
-        <v>140.3767473128205</v>
+        <v>418.443084704737</v>
       </c>
       <c r="K36" t="n">
-        <v>286.6601969659957</v>
+        <v>564.7265343579122</v>
       </c>
       <c r="L36" t="n">
         <v>768.9500978532595</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>570.4617332103641</v>
+        <v>899.9580467309338</v>
       </c>
       <c r="C37" t="n">
-        <v>398.48917008928</v>
+        <v>727.9854836098498</v>
       </c>
       <c r="D37" t="n">
-        <v>235.1723972160507</v>
+        <v>564.6687107366205</v>
       </c>
       <c r="E37" t="n">
-        <v>207.6764940461223</v>
+        <v>398.460504889474</v>
       </c>
       <c r="F37" t="n">
-        <v>207.6764940461223</v>
+        <v>226.5987306640344</v>
       </c>
       <c r="G37" t="n">
-        <v>42.31189103053823</v>
+        <v>61.23412764845037</v>
       </c>
       <c r="H37" t="n">
-        <v>42.31189103053823</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="I37" t="n">
-        <v>42.31189103053823</v>
+        <v>42.31189103053821</v>
       </c>
       <c r="J37" t="n">
-        <v>83.71633013505026</v>
+        <v>83.71633013505024</v>
       </c>
       <c r="K37" t="n">
-        <v>164.5749387647575</v>
+        <v>382.4313831246417</v>
       </c>
       <c r="L37" t="n">
-        <v>649.2947048839582</v>
+        <v>867.1511492438424</v>
       </c>
       <c r="M37" t="n">
-        <v>1172.904356386869</v>
+        <v>1390.760800746753</v>
       </c>
       <c r="N37" t="n">
-        <v>1684.234834961053</v>
+        <v>1504.058356479057</v>
       </c>
       <c r="O37" t="n">
-        <v>1983.108434292714</v>
+        <v>1983.108434292712</v>
       </c>
       <c r="P37" t="n">
-        <v>2066.731375476997</v>
+        <v>2066.731375476996</v>
       </c>
       <c r="Q37" t="n">
-        <v>2115.594551526912</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="R37" t="n">
-        <v>2115.594551526912</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="S37" t="n">
-        <v>2115.594551526912</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="T37" t="n">
-        <v>1876.068043247234</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="U37" t="n">
-        <v>1595.932269294275</v>
+        <v>2115.59455152691</v>
       </c>
       <c r="V37" t="n">
-        <v>1314.220801902304</v>
+        <v>1833.883084134939</v>
       </c>
       <c r="W37" t="n">
-        <v>1039.368398074817</v>
+        <v>1559.030680307452</v>
       </c>
       <c r="X37" t="n">
-        <v>796.804501520622</v>
+        <v>1316.466783753257</v>
       </c>
       <c r="Y37" t="n">
-        <v>570.4617332103641</v>
+        <v>1090.124015443</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1996.549973835651</v>
+        <v>743.0991682219723</v>
       </c>
       <c r="C38" t="n">
-        <v>1996.549973835651</v>
+        <v>743.0991682219723</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.257353020651</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.280413168509</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="F38" t="n">
-        <v>722.1562313579091</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="G38" t="n">
         <v>319.8065474069725</v>
@@ -7171,16 +7171,16 @@
         <v>42.31189103053819</v>
       </c>
       <c r="I38" t="n">
-        <v>83.27873986633753</v>
+        <v>83.27873986633722</v>
       </c>
       <c r="J38" t="n">
-        <v>219.6389544126145</v>
+        <v>219.6389544126141</v>
       </c>
       <c r="K38" t="n">
-        <v>432.2525774933685</v>
+        <v>432.2525774933681</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0151138095606</v>
+        <v>702.0151138095603</v>
       </c>
       <c r="M38" t="n">
         <v>1007.324196722083</v>
@@ -7201,25 +7201,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S38" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="T38" t="n">
-        <v>2115.59455152691</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="U38" t="n">
-        <v>1996.549973835651</v>
+        <v>1586.147393173303</v>
       </c>
       <c r="V38" t="n">
-        <v>1996.549973835651</v>
+        <v>1586.147393173303</v>
       </c>
       <c r="W38" t="n">
-        <v>1996.549973835651</v>
+        <v>1189.75604347365</v>
       </c>
       <c r="X38" t="n">
-        <v>1996.549973835651</v>
+        <v>1189.75604347365</v>
       </c>
       <c r="Y38" t="n">
-        <v>1996.549973835651</v>
+        <v>784.4187734285402</v>
       </c>
     </row>
     <row r="39">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>386.1462283770618</v>
+        <v>622.3956694088512</v>
       </c>
       <c r="C40" t="n">
-        <v>214.1736652559778</v>
+        <v>450.4231062877672</v>
       </c>
       <c r="D40" t="n">
-        <v>214.1736652559778</v>
+        <v>287.1063334145379</v>
       </c>
       <c r="E40" t="n">
-        <v>214.1736652559778</v>
+        <v>287.1063334145379</v>
       </c>
       <c r="F40" t="n">
-        <v>42.31189103053819</v>
+        <v>115.2445591890983</v>
       </c>
       <c r="G40" t="n">
-        <v>42.31189103053819</v>
+        <v>115.2445591890983</v>
       </c>
       <c r="H40" t="n">
-        <v>42.31189103053819</v>
+        <v>115.2445591890983</v>
       </c>
       <c r="I40" t="n">
         <v>42.31189103053819</v>
       </c>
       <c r="J40" t="n">
-        <v>83.71633013505021</v>
+        <v>161.6380467832711</v>
       </c>
       <c r="K40" t="n">
-        <v>411.8575478787795</v>
+        <v>242.4966554129783</v>
       </c>
       <c r="L40" t="n">
-        <v>520.1884204068152</v>
+        <v>727.216421532179</v>
       </c>
       <c r="M40" t="n">
-        <v>1043.798071909725</v>
+        <v>1250.826073035089</v>
       </c>
       <c r="N40" t="n">
-        <v>1555.12855048391</v>
+        <v>1762.156551609273</v>
       </c>
       <c r="O40" t="n">
-        <v>1983.108434292712</v>
+        <v>1863.504305119726</v>
       </c>
       <c r="P40" t="n">
-        <v>2066.731375476995</v>
+        <v>1947.127246304009</v>
       </c>
       <c r="Q40" t="n">
         <v>2115.59455152691</v>
@@ -7362,22 +7362,22 @@
         <v>2115.59455152691</v>
       </c>
       <c r="T40" t="n">
-        <v>1881.918507125997</v>
+        <v>1928.001979445721</v>
       </c>
       <c r="U40" t="n">
-        <v>1601.782733173038</v>
+        <v>1647.866205492762</v>
       </c>
       <c r="V40" t="n">
-        <v>1320.071265781067</v>
+        <v>1366.154738100791</v>
       </c>
       <c r="W40" t="n">
-        <v>1045.21886195358</v>
+        <v>1091.302334273304</v>
       </c>
       <c r="X40" t="n">
-        <v>802.6549653993854</v>
+        <v>848.7384377191091</v>
       </c>
       <c r="Y40" t="n">
-        <v>576.3121970891275</v>
+        <v>622.3956694088512</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.31374267998</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="C41" t="n">
-        <v>893.4130126932804</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="D41" t="n">
-        <v>893.4130126932804</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="E41" t="n">
-        <v>467.436072841138</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="F41" t="n">
-        <v>42.31189103053819</v>
+        <v>722.1562313579091</v>
       </c>
       <c r="G41" t="n">
-        <v>42.31189103053819</v>
+        <v>319.8065474069725</v>
       </c>
       <c r="H41" t="n">
         <v>42.31189103053819</v>
       </c>
       <c r="I41" t="n">
-        <v>83.2787398663375</v>
+        <v>83.27873986633767</v>
       </c>
       <c r="J41" t="n">
-        <v>219.6389544126145</v>
+        <v>219.6389544126148</v>
       </c>
       <c r="K41" t="n">
-        <v>432.2525774933684</v>
+        <v>432.2525774933688</v>
       </c>
       <c r="L41" t="n">
-        <v>702.0151138095605</v>
+        <v>702.0151138095608</v>
       </c>
       <c r="M41" t="n">
-        <v>1007.324196722082</v>
+        <v>1007.324196722083</v>
       </c>
       <c r="N41" t="n">
-        <v>1318.323243648508</v>
+        <v>1318.323243648509</v>
       </c>
       <c r="O41" t="n">
         <v>1609.823844813727</v>
       </c>
       <c r="P41" t="n">
-        <v>1853.0064511639</v>
+        <v>1853.006451163901</v>
       </c>
       <c r="Q41" t="n">
-        <v>2027.798389622783</v>
+        <v>2027.798389622784</v>
       </c>
       <c r="R41" t="n">
         <v>2115.59455152691</v>
       </c>
       <c r="S41" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="T41" t="n">
-        <v>2115.59455152691</v>
+        <v>1844.343152300122</v>
       </c>
       <c r="U41" t="n">
-        <v>2115.59455152691</v>
+        <v>1586.147393173303</v>
       </c>
       <c r="V41" t="n">
-        <v>2115.59455152691</v>
+        <v>1228.657978299552</v>
       </c>
       <c r="W41" t="n">
-        <v>1725.65101272509</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="X41" t="n">
-        <v>1725.65101272509</v>
+        <v>1147.280413168509</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.31374267998</v>
+        <v>1147.280413168509</v>
       </c>
     </row>
     <row r="42">
@@ -7490,13 +7490,13 @@
         <v>62.21943782055837</v>
       </c>
       <c r="J42" t="n">
-        <v>418.4430847047371</v>
+        <v>140.3767473128204</v>
       </c>
       <c r="K42" t="n">
-        <v>564.7265343579123</v>
+        <v>564.7265343579122</v>
       </c>
       <c r="L42" t="n">
-        <v>768.9500978532596</v>
+        <v>768.9500978532595</v>
       </c>
       <c r="M42" t="n">
         <v>1010.414854927137</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>635.3064097699406</v>
+        <v>373.3812025459155</v>
       </c>
       <c r="C43" t="n">
-        <v>635.3064097699406</v>
+        <v>201.4086394248315</v>
       </c>
       <c r="D43" t="n">
-        <v>635.3064097699406</v>
+        <v>201.4086394248315</v>
       </c>
       <c r="E43" t="n">
-        <v>588.3332538037879</v>
+        <v>201.4086394248315</v>
       </c>
       <c r="F43" t="n">
-        <v>416.4714795783483</v>
+        <v>201.4086394248315</v>
       </c>
       <c r="G43" t="n">
-        <v>251.1068765627642</v>
+        <v>201.4086394248315</v>
       </c>
       <c r="H43" t="n">
         <v>115.2445591890983</v>
@@ -7569,25 +7569,25 @@
         <v>42.31189103053819</v>
       </c>
       <c r="J43" t="n">
-        <v>128.5552478663193</v>
+        <v>83.71633013505021</v>
       </c>
       <c r="K43" t="n">
-        <v>209.4138564960265</v>
+        <v>164.5749387647574</v>
       </c>
       <c r="L43" t="n">
-        <v>317.7447290240623</v>
+        <v>565.222486370076</v>
       </c>
       <c r="M43" t="n">
-        <v>841.3543805269724</v>
+        <v>679.971673331564</v>
       </c>
       <c r="N43" t="n">
-        <v>1352.684859101157</v>
+        <v>1191.302151905748</v>
       </c>
       <c r="O43" t="n">
-        <v>1831.734936914812</v>
+        <v>1670.352229719404</v>
       </c>
       <c r="P43" t="n">
-        <v>1915.357878099096</v>
+        <v>2066.731375476995</v>
       </c>
       <c r="Q43" t="n">
         <v>2115.59455152691</v>
@@ -7596,25 +7596,25 @@
         <v>2108.679989574529</v>
       </c>
       <c r="S43" t="n">
-        <v>1954.096459776231</v>
+        <v>2108.679989574529</v>
       </c>
       <c r="T43" t="n">
-        <v>1714.569951496552</v>
+        <v>1869.153481294851</v>
       </c>
       <c r="U43" t="n">
-        <v>1434.434177543594</v>
+        <v>1589.017707341892</v>
       </c>
       <c r="V43" t="n">
-        <v>1152.722710151623</v>
+        <v>1307.306239949921</v>
       </c>
       <c r="W43" t="n">
-        <v>877.8703063241355</v>
+        <v>1032.453836122434</v>
       </c>
       <c r="X43" t="n">
-        <v>635.3064097699406</v>
+        <v>789.8899395682391</v>
       </c>
       <c r="Y43" t="n">
-        <v>635.3064097699406</v>
+        <v>563.5471712579812</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1284.026188403127</v>
+        <v>1401.973110222053</v>
       </c>
       <c r="C44" t="n">
-        <v>857.1254584164269</v>
+        <v>975.0723802353527</v>
       </c>
       <c r="D44" t="n">
-        <v>433.8328376014272</v>
+        <v>975.0723802353527</v>
       </c>
       <c r="E44" t="n">
-        <v>42.31189103053819</v>
+        <v>549.0954403832103</v>
       </c>
       <c r="F44" t="n">
-        <v>42.31189103053819</v>
+        <v>123.9712585726105</v>
       </c>
       <c r="G44" t="n">
         <v>42.31189103053819</v>
@@ -7645,13 +7645,13 @@
         <v>42.31189103053819</v>
       </c>
       <c r="I44" t="n">
-        <v>83.27873986633747</v>
+        <v>83.27873986633756</v>
       </c>
       <c r="J44" t="n">
-        <v>219.6389544126145</v>
+        <v>219.6389544126146</v>
       </c>
       <c r="K44" t="n">
-        <v>432.2525774933686</v>
+        <v>432.2525774933685</v>
       </c>
       <c r="L44" t="n">
         <v>702.0151138095606</v>
@@ -7663,10 +7663,10 @@
         <v>1318.323243648509</v>
       </c>
       <c r="O44" t="n">
-        <v>1609.823844813727</v>
+        <v>1609.823844813728</v>
       </c>
       <c r="P44" t="n">
-        <v>1853.0064511639</v>
+        <v>1853.006451163901</v>
       </c>
       <c r="Q44" t="n">
         <v>2027.798389622784</v>
@@ -7675,25 +7675,25 @@
         <v>2115.59455152691</v>
       </c>
       <c r="S44" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="T44" t="n">
-        <v>2115.59455152691</v>
+        <v>2056.560219048524</v>
       </c>
       <c r="U44" t="n">
-        <v>2115.59455152691</v>
+        <v>1798.364459921706</v>
       </c>
       <c r="V44" t="n">
-        <v>2115.59455152691</v>
+        <v>1798.364459921706</v>
       </c>
       <c r="W44" t="n">
-        <v>2115.59455152691</v>
+        <v>1401.973110222053</v>
       </c>
       <c r="X44" t="n">
-        <v>1703.874552694657</v>
+        <v>1401.973110222053</v>
       </c>
       <c r="Y44" t="n">
-        <v>1703.874552694657</v>
+        <v>1401.973110222053</v>
       </c>
     </row>
     <row r="45">
@@ -7727,7 +7727,7 @@
         <v>62.21943782055837</v>
       </c>
       <c r="J45" t="n">
-        <v>418.4430847047371</v>
+        <v>140.3767473128204</v>
       </c>
       <c r="K45" t="n">
         <v>564.7265343579123</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>924.4661926296636</v>
+        <v>612.9077108255938</v>
       </c>
       <c r="C46" t="n">
-        <v>752.4936295085796</v>
+        <v>440.9351477045097</v>
       </c>
       <c r="D46" t="n">
-        <v>589.1768566353503</v>
+        <v>277.6183748312804</v>
       </c>
       <c r="E46" t="n">
-        <v>422.9686507882038</v>
+        <v>277.6183748312804</v>
       </c>
       <c r="F46" t="n">
-        <v>251.1068765627642</v>
+        <v>277.6183748312804</v>
       </c>
       <c r="G46" t="n">
-        <v>251.1068765627642</v>
+        <v>178.1742084042041</v>
       </c>
       <c r="H46" t="n">
-        <v>115.2445591890983</v>
+        <v>42.31189103053819</v>
       </c>
       <c r="I46" t="n">
         <v>42.31189103053819</v>
       </c>
       <c r="J46" t="n">
-        <v>161.6380467832711</v>
+        <v>83.71633013505021</v>
       </c>
       <c r="K46" t="n">
-        <v>242.4966554129783</v>
+        <v>164.5749387647574</v>
       </c>
       <c r="L46" t="n">
-        <v>350.827527941014</v>
+        <v>649.294704883958</v>
       </c>
       <c r="M46" t="n">
-        <v>874.4371794439242</v>
+        <v>1172.904356386868</v>
       </c>
       <c r="N46" t="n">
-        <v>1385.767658018108</v>
+        <v>1684.234834961052</v>
       </c>
       <c r="O46" t="n">
-        <v>1518.978732341505</v>
+        <v>1983.108434292712</v>
       </c>
       <c r="P46" t="n">
-        <v>1915.357878099096</v>
+        <v>2066.731375476995</v>
       </c>
       <c r="Q46" t="n">
         <v>2115.59455152691</v>
@@ -7833,25 +7833,25 @@
         <v>2108.679989574529</v>
       </c>
       <c r="S46" t="n">
-        <v>1954.096459776231</v>
+        <v>2108.679989574529</v>
       </c>
       <c r="T46" t="n">
-        <v>1954.096459776231</v>
+        <v>2108.679989574529</v>
       </c>
       <c r="U46" t="n">
-        <v>1954.096459776231</v>
+        <v>1828.54421562157</v>
       </c>
       <c r="V46" t="n">
-        <v>1858.391230033669</v>
+        <v>1546.832748229599</v>
       </c>
       <c r="W46" t="n">
-        <v>1583.538826206182</v>
+        <v>1271.980344402112</v>
       </c>
       <c r="X46" t="n">
-        <v>1340.974929651987</v>
+        <v>1029.416447847917</v>
       </c>
       <c r="Y46" t="n">
-        <v>1114.632161341729</v>
+        <v>803.0736795376595</v>
       </c>
     </row>
   </sheetData>
@@ -7981,25 +7981,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>63.88091092762902</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>66.42835256544261</v>
+        <v>65.29234003482364</v>
       </c>
       <c r="M2" t="n">
         <v>65.54757303225151</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>65.39593296726571</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>65.50726948884378</v>
       </c>
       <c r="P2" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>63.10497220679875</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
         <v>35.03264989479647</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>48.72742446615302</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>50.63139684704925</v>
+        <v>41.97352273874154</v>
       </c>
       <c r="M3" t="n">
         <v>51.21309064514766</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>49.45933834636135</v>
       </c>
       <c r="O3" t="n">
-        <v>50.15218732442293</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>48.75306611672156</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>47.9449520549127</v>
       </c>
       <c r="L4" t="n">
-        <v>48.89905749790193</v>
+        <v>50.03507002852091</v>
       </c>
       <c r="M4" t="n">
-        <v>50.69175002430551</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N4" t="n">
-        <v>20.74890097560039</v>
+        <v>48.86521110842008</v>
       </c>
       <c r="O4" t="n">
-        <v>50.61549763124414</v>
+        <v>22.49918749842445</v>
       </c>
       <c r="P4" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>57.53626961840621</v>
       </c>
       <c r="K5" t="n">
-        <v>62.74489839701005</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
         <v>38.31204243262292</v>
@@ -8230,16 +8230,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>65.50726948884378</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>65.69167194305098</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>63.10497220679875</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>40.06955035784532</v>
       </c>
       <c r="K6" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>50.63139684704925</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
@@ -8309,7 +8309,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>42.6303257467342</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
         <v>49.88715133764835</v>
@@ -8318,7 +8318,7 @@
         <v>50.86334842179818</v>
       </c>
       <c r="R6" t="n">
-        <v>51.78922952696383</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8382,19 +8382,19 @@
         <v>50.03507002852091</v>
       </c>
       <c r="M7" t="n">
-        <v>49.55573749368652</v>
+        <v>22.57543989148582</v>
       </c>
       <c r="N7" t="n">
         <v>20.74890097560039</v>
       </c>
       <c r="O7" t="n">
-        <v>22.49918749842445</v>
+        <v>50.61549763124414</v>
       </c>
       <c r="P7" t="n">
-        <v>22.38080065798648</v>
+        <v>49.36109826018719</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.73587289760464</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>57.53626961840621</v>
+        <v>56.40025708778723</v>
       </c>
       <c r="K8" t="n">
         <v>35.76460079480934</v>
@@ -8473,10 +8473,10 @@
         <v>65.69167194305098</v>
       </c>
       <c r="Q8" t="n">
-        <v>64.24098473741772</v>
+        <v>64.24098473741773</v>
       </c>
       <c r="R8" t="n">
-        <v>62.01294749699718</v>
+        <v>63.14896002761616</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>48.72742446615302</v>
       </c>
       <c r="K9" t="n">
-        <v>50.51554396615302</v>
+        <v>41.85766985784532</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
@@ -8552,10 +8552,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.20547431349047</v>
+        <v>50.86334842179818</v>
       </c>
       <c r="R9" t="n">
-        <v>51.78922952696382</v>
+        <v>51.78922952696383</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>47.61705358610256</v>
+        <v>48.75306611672156</v>
       </c>
       <c r="K10" t="n">
-        <v>49.08096458553167</v>
+        <v>49.08096458553168</v>
       </c>
       <c r="L10" t="n">
-        <v>50.03507002852091</v>
+        <v>48.89905749790193</v>
       </c>
       <c r="M10" t="n">
         <v>22.57543989148582</v>
@@ -8628,10 +8628,10 @@
         <v>22.49918749842445</v>
       </c>
       <c r="P10" t="n">
-        <v>50.49711079080616</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>52.73587289760464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>150.6601325884838</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>280.8750882746635</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>412.9903682236586</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>119.4855540009568</v>
+        <v>304.5581647869323</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L16" t="n">
-        <v>198.1943586961296</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
-        <v>412.9903682236588</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>217.2577833243024</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,10 +9239,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>150.6601325884837</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>280.8750882746633</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,25 +9324,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>412.9903682236588</v>
+        <v>412.9903682236587</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>337.3607393118195</v>
       </c>
       <c r="O19" t="n">
-        <v>348.1005306931833</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>280.8750882746631</v>
+        <v>150.6601325884837</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>412.9903682236588</v>
+        <v>295.2693687649323</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9576,10 +9576,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P22" t="n">
-        <v>45.29183609219122</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>383.0143591261567</v>
       </c>
       <c r="K23" t="n">
-        <v>401.2178825391987</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>478.6135547311349</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>280.8750882746631</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8750882746632</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K25" t="n">
         <v>249.7804132464869</v>
@@ -9816,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>127.4169846534387</v>
+        <v>48.70817995826613</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>229.2379366233778</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>330.3689352649018</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>280.8750882746634</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>150.6601325884835</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10041,7 +10041,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
-        <v>313.5182638824303</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
         <v>402.0534574160406</v>
@@ -10053,7 +10053,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
-        <v>152.9025226039384</v>
+        <v>48.70817995826613</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>442.7079521085794</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>437.1234851617544</v>
+        <v>484.1453577676812</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>280.8750882746631</v>
+        <v>150.6601325884837</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
         <v>249.7804132464869</v>
@@ -10290,7 +10290,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>127.4169846534387</v>
+        <v>48.70817995826613</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.531803036545966</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>478.6135547311349</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10369,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>330.3689352649021</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>280.8750882746631</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10436,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>280.8750882746632</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10506,7 +10506,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
         <v>249.7804132464869</v>
@@ -10527,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.4169846534387</v>
+        <v>48.70817995826613</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>280.8750882746631</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>280.8750882746631</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10746,19 +10746,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>220.0570145049335</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>412.9903682236593</v>
+        <v>412.990368223659</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>199.5210563850589</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>412.9903682236588</v>
+        <v>412.9903682236587</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
-        <v>329.9314447458075</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>120.8122516898846</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>280.8750882746633</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>280.8750882746632</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.29183609219105</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>295.2693687649322</v>
       </c>
       <c r="M43" t="n">
-        <v>412.9903682236588</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>402.0534574160406</v>
@@ -11235,10 +11235,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>280.8750882746633</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>412.9903682236588</v>
+        <v>412.9903682236587</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>32.18517253832729</v>
+        <v>199.5210563850573</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>413.3271317408998</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.3261871114271</v>
       </c>
       <c r="H11" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>58.44398915360158</v>
+        <v>4.562553786062715</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23424,16 +23424,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>6.205176075078697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>134.5036941999293</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>72.20334147697447</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.845416332856594</v>
       </c>
       <c r="S13" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>179.3433924419286</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.38157449700458</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>118.0885781308657</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>398.3261871114271</v>
       </c>
       <c r="H14" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>210.0948960809187</v>
       </c>
       <c r="U14" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23664,13 +23664,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.7109569854282</v>
       </c>
       <c r="H16" t="n">
-        <v>133.8634539421503</v>
+        <v>134.5036941999293</v>
       </c>
       <c r="I16" t="n">
         <v>72.20334147697446</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.845416332856594</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.0376945003153</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>12.63737557283463</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23740,16 +23740,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>398.3261871114271</v>
       </c>
       <c r="H17" t="n">
-        <v>251.4923988397369</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23791,10 +23791,10 @@
         <v>255.6138015355503</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>49.79839809955394</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>5.791959239977956</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.845416332856594</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>165.6750700731499</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>298.7103009674806</v>
+        <v>276.7981569490314</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>274.7197098126699</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>210.0948960809187</v>
       </c>
       <c r="U20" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7109569854282</v>
+        <v>92.75455639736815</v>
       </c>
       <c r="H22" t="n">
-        <v>29.87537879519206</v>
+        <v>134.5036941999293</v>
       </c>
       <c r="I22" t="n">
         <v>72.20334147697446</v>
@@ -24177,7 +24177,7 @@
         <v>6.845416332856594</v>
       </c>
       <c r="S22" t="n">
-        <v>153.0376945003153</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>2.790317661715164</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>382.7434540685334</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>398.3261871114271</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.44398915360156</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>209.9963334933066</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>260.1863339371974</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>324.1514677499795</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.464215909765183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>210.0948960809187</v>
       </c>
       <c r="U29" t="n">
         <v>255.6138015355503</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>135.9201767194711</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,13 +24973,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V32" t="n">
-        <v>280.6196070461603</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>51.83616518081044</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>90.69413810804647</v>
+        <v>255.6138015355503</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>137.3251796504458</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5036941999293</v>
+        <v>115.7706799481962</v>
       </c>
       <c r="I37" t="n">
         <v>72.20334147697446</v>
@@ -25365,10 +25365,10 @@
         <v>153.0376945003153</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1312431968815</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3344162134288</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>374.7434714941124</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -25399,13 +25399,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.3261871114271</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.44398915360156</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>137.7596696212045</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -25569,7 +25569,7 @@
         <v>134.5036941999293</v>
       </c>
       <c r="I40" t="n">
-        <v>72.20334147697446</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>153.0376945003153</v>
       </c>
       <c r="T40" t="n">
-        <v>5.791959239977825</v>
+        <v>51.41459683650459</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.3261871114271</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7197098126699</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.44398915360157</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.0948960809187</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>6.383332788855171</v>
+        <v>311.8636467229234</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0426993821838</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7109569854282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>49.20125476655333</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>34.11143334844093</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.3261871114271</v>
+        <v>317.4834132447755</v>
       </c>
       <c r="H44" t="n">
         <v>274.7197098126699</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.44398915360157</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.0948960809187</v>
       </c>
       <c r="U44" t="n">
-        <v>255.6138015355503</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7109569854282</v>
+        <v>65.26123222262268</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.20334147697447</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.0376945003153</v>
       </c>
       <c r="T46" t="n">
         <v>237.1312431968815</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3344162134288</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>184.1461752729153</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387519.9066429028</v>
+        <v>387519.9066429029</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>515414.1364743549</v>
+        <v>515414.1364743548</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>515414.1364743548</v>
+        <v>515414.1364743549</v>
       </c>
     </row>
     <row r="13">
@@ -26319,7 +26319,7 @@
         <v>378587.7342072558</v>
       </c>
       <c r="D2" t="n">
-        <v>378587.7342072559</v>
+        <v>378587.7342072558</v>
       </c>
       <c r="E2" t="n">
         <v>220273.3907601786</v>
@@ -26328,7 +26328,7 @@
         <v>220273.3907601786</v>
       </c>
       <c r="G2" t="n">
-        <v>220273.3907601787</v>
+        <v>220273.3907601786</v>
       </c>
       <c r="H2" t="n">
         <v>220273.3907601786</v>
@@ -26337,13 +26337,13 @@
         <v>278342.2075511459</v>
       </c>
       <c r="J2" t="n">
-        <v>278342.2075511457</v>
+        <v>278342.2075511459</v>
       </c>
       <c r="K2" t="n">
-        <v>278342.2075511459</v>
+        <v>278342.2075511458</v>
       </c>
       <c r="L2" t="n">
-        <v>278342.2075511459</v>
+        <v>278342.2075511458</v>
       </c>
       <c r="M2" t="n">
         <v>220273.3907601788</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9422.422200640955</v>
+        <v>9422.422200640931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>543117.1975751772</v>
+        <v>543117.1975751774</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.041615094651678e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>69423.25043939493</v>
+        <v>69423.25043939475</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,25 +26438,25 @@
         <v>15188.91103226355</v>
       </c>
       <c r="I4" t="n">
-        <v>44949.5613305075</v>
+        <v>44949.56133050749</v>
       </c>
       <c r="J4" t="n">
-        <v>44949.56133050751</v>
+        <v>44949.56133050749</v>
       </c>
       <c r="K4" t="n">
         <v>44949.5613305075</v>
       </c>
       <c r="L4" t="n">
-        <v>44949.56133050751</v>
+        <v>44949.56133050749</v>
       </c>
       <c r="M4" t="n">
-        <v>15188.91103226363</v>
+        <v>15188.91103226359</v>
       </c>
       <c r="N4" t="n">
         <v>15188.91103226355</v>
       </c>
       <c r="O4" t="n">
-        <v>15188.91103226355</v>
+        <v>15188.91103226356</v>
       </c>
       <c r="P4" t="n">
         <v>15188.91103226356</v>
@@ -26478,7 +26478,7 @@
         <v>35337.07165607544</v>
       </c>
       <c r="E5" t="n">
-        <v>42837.06020466685</v>
+        <v>42837.06020466686</v>
       </c>
       <c r="F5" t="n">
         <v>42837.06020466686</v>
@@ -26502,7 +26502,7 @@
         <v>56346.96170267093</v>
       </c>
       <c r="M5" t="n">
-        <v>42837.0602046669</v>
+        <v>42837.06020466688</v>
       </c>
       <c r="N5" t="n">
         <v>42837.06020466686</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14826.38354909967</v>
+        <v>14826.38354909966</v>
       </c>
       <c r="C6" t="n">
-        <v>24248.80574974063</v>
+        <v>24248.80574974061</v>
       </c>
       <c r="D6" t="n">
-        <v>24248.80574974074</v>
+        <v>24248.80574974061</v>
       </c>
       <c r="E6" t="n">
-        <v>-380869.778051929</v>
+        <v>-381478.6793728794</v>
       </c>
       <c r="F6" t="n">
-        <v>162247.4195232482</v>
+        <v>161638.5182022978</v>
       </c>
       <c r="G6" t="n">
-        <v>162247.4195232483</v>
+        <v>161638.5182022979</v>
       </c>
       <c r="H6" t="n">
-        <v>162247.4195232482</v>
+        <v>161638.5182022979</v>
       </c>
       <c r="I6" t="n">
-        <v>117957.419448054</v>
+        <v>117571.8597301459</v>
       </c>
       <c r="J6" t="n">
-        <v>169689.2206695758</v>
+        <v>169303.6609516678</v>
       </c>
       <c r="K6" t="n">
-        <v>177045.6845179674</v>
+        <v>176660.1248000592</v>
       </c>
       <c r="L6" t="n">
-        <v>177045.6845179674</v>
+        <v>176660.1248000592</v>
       </c>
       <c r="M6" t="n">
-        <v>92824.16908385331</v>
+        <v>92215.26776290328</v>
       </c>
       <c r="N6" t="n">
-        <v>162247.4195232483</v>
+        <v>161638.518202298</v>
       </c>
       <c r="O6" t="n">
-        <v>162247.4195232482</v>
+        <v>161638.5182022979</v>
       </c>
       <c r="P6" t="n">
-        <v>162247.4195232482</v>
+        <v>161638.5182022979</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9093129109101</v>
+        <v>489.9093129109102</v>
       </c>
       <c r="F3" t="n">
         <v>489.9093129109103</v>
@@ -26776,7 +26776,7 @@
         <v>489.9093129109103</v>
       </c>
       <c r="O3" t="n">
-        <v>489.9093129109102</v>
+        <v>489.9093129109103</v>
       </c>
       <c r="P3" t="n">
         <v>489.9093129109102</v>
@@ -26798,7 +26798,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="E4" t="n">
-        <v>528.8986378817272</v>
+        <v>528.8986378817274</v>
       </c>
       <c r="F4" t="n">
         <v>528.8986378817274</v>
@@ -26822,7 +26822,7 @@
         <v>751.100965151531</v>
       </c>
       <c r="M4" t="n">
-        <v>528.898637881728</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="N4" t="n">
         <v>528.8986378817274</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>489.9093129109101</v>
+        <v>489.9093129109102</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>500.7823277489075</v>
+        <v>500.7823277489076</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>278.5800004791052</v>
+        <v>278.5800004791045</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>500.7823277489075</v>
+        <v>500.7823277489076</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.806591755949435e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6377393258621</v>
+        <v>102.8728933608745</v>
       </c>
       <c r="C3" t="n">
-        <v>116.3308444476703</v>
+        <v>88.21453431485057</v>
       </c>
       <c r="D3" t="n">
-        <v>102.8015588998678</v>
+        <v>74.68524876704814</v>
       </c>
       <c r="E3" t="n">
         <v>103.6549143897921</v>
       </c>
       <c r="F3" t="n">
-        <v>67.94452604893732</v>
+        <v>64.5930618811052</v>
       </c>
       <c r="G3" t="n">
-        <v>64.99692393175235</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>24.72602217249382</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>52.39469483153834</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -27554,10 +27554,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>114.2419956741075</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>70.65457244430709</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.803381214711</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>143.6688510410689</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -27596,7 +27596,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>250.7780425852317</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -27605,7 +27605,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>195.9630304943357</v>
       </c>
     </row>
     <row r="5">
@@ -27706,7 +27706,7 @@
         <v>75.53860425697246</v>
       </c>
       <c r="F6" t="n">
-        <v>64.5930618811052</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G6" t="n">
         <v>93.11323406457203</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>55.74615899937044</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -27754,10 +27754,10 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V6" t="n">
-        <v>202.9234074721264</v>
+        <v>178.1585615071388</v>
       </c>
       <c r="W6" t="n">
-        <v>194.556163395115</v>
+        <v>166.4398532622953</v>
       </c>
       <c r="X6" t="n">
         <v>133.726262638184</v>
@@ -27776,25 +27776,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>145.4879915248856</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>136.4298136558553</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>136.4780898758905</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>70.65457244430709</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>18.4519170468789</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -27833,13 +27833,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>250.7780425852317</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>243.9875696563924</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>215.3734116236654</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -27949,7 +27949,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H9" t="n">
-        <v>52.84233230531351</v>
+        <v>24.72602217249382</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>55.74615899937046</v>
+        <v>55.74615899937044</v>
       </c>
       <c r="T9" t="n">
         <v>140.4611363452985</v>
@@ -27991,13 +27991,13 @@
         <v>154.80420398674</v>
       </c>
       <c r="V9" t="n">
-        <v>174.8070973393067</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W9" t="n">
-        <v>166.4398532622953</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X9" t="n">
-        <v>161.8425727710037</v>
+        <v>133.726262638184</v>
       </c>
       <c r="Y9" t="n">
         <v>138.2959597602405</v>
@@ -28031,7 +28031,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>74.00603661213921</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>18.4519170468789</v>
       </c>
       <c r="S10" t="n">
-        <v>143.6688510410689</v>
+        <v>140.3173868732368</v>
       </c>
       <c r="T10" t="n">
         <v>212.7896441635393</v>
       </c>
       <c r="U10" t="n">
-        <v>249.2662938818791</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
         <v>278.8943527180514</v>
@@ -31752,22 +31752,22 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.969484675018732</v>
+        <v>1.969484675018733</v>
       </c>
       <c r="H11" t="n">
         <v>20.1699849280356</v>
       </c>
       <c r="I11" t="n">
-        <v>75.92855793365976</v>
+        <v>75.92855793365977</v>
       </c>
       <c r="J11" t="n">
         <v>167.1575499363713</v>
       </c>
       <c r="K11" t="n">
-        <v>250.5258362299143</v>
+        <v>250.5258362299144</v>
       </c>
       <c r="L11" t="n">
-        <v>310.7994528530189</v>
+        <v>310.799452853019</v>
       </c>
       <c r="M11" t="n">
         <v>345.8242759423833</v>
@@ -31776,13 +31776,13 @@
         <v>351.4200742752803</v>
       </c>
       <c r="O11" t="n">
-        <v>331.8360110380627</v>
+        <v>331.8360110380628</v>
       </c>
       <c r="P11" t="n">
-        <v>283.2143581235377</v>
+        <v>283.2143581235378</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.6821881994293</v>
+        <v>212.6821881994294</v>
       </c>
       <c r="R11" t="n">
         <v>123.7156417171456</v>
@@ -31791,7 +31791,7 @@
         <v>44.87963203198942</v>
       </c>
       <c r="T11" t="n">
-        <v>8.621419164894506</v>
+        <v>8.621419164894508</v>
       </c>
       <c r="U11" t="n">
         <v>0.1575587740014986</v>
@@ -31837,43 +31837,43 @@
         <v>10.17717270782853</v>
       </c>
       <c r="I12" t="n">
-        <v>36.2810198712325</v>
+        <v>36.28101987123251</v>
       </c>
       <c r="J12" t="n">
-        <v>99.5578915982445</v>
+        <v>99.55789159824452</v>
       </c>
       <c r="K12" t="n">
-        <v>170.1602940890658</v>
+        <v>170.1602940890659</v>
       </c>
       <c r="L12" t="n">
-        <v>228.8015144873076</v>
+        <v>228.8015144873077</v>
       </c>
       <c r="M12" t="n">
         <v>267.000575536446</v>
       </c>
       <c r="N12" t="n">
-        <v>274.0672862858873</v>
+        <v>274.0672862858874</v>
       </c>
       <c r="O12" t="n">
-        <v>250.7180235611145</v>
+        <v>250.7180235611146</v>
       </c>
       <c r="P12" t="n">
         <v>201.2233175992001</v>
       </c>
       <c r="Q12" t="n">
-        <v>134.5124588958408</v>
+        <v>134.5124588958409</v>
       </c>
       <c r="R12" t="n">
-        <v>65.42600220346081</v>
+        <v>65.42600220346083</v>
       </c>
       <c r="S12" t="n">
-        <v>19.5732635865821</v>
+        <v>19.57326358658211</v>
       </c>
       <c r="T12" t="n">
-        <v>4.247421307218172</v>
+        <v>4.247421307218173</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06932678956286467</v>
+        <v>0.06932678956286469</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8834430232819689</v>
+        <v>0.8834430232819691</v>
       </c>
       <c r="H13" t="n">
-        <v>7.854611606997875</v>
+        <v>7.854611606997877</v>
       </c>
       <c r="I13" t="n">
-        <v>26.56754110015231</v>
+        <v>26.56754110015232</v>
       </c>
       <c r="J13" t="n">
-        <v>62.4594217460352</v>
+        <v>62.45942174603522</v>
       </c>
       <c r="K13" t="n">
         <v>102.6400167049415</v>
       </c>
       <c r="L13" t="n">
-        <v>131.3438836613938</v>
+        <v>131.3438836613939</v>
       </c>
       <c r="M13" t="n">
-        <v>138.4837095495544</v>
+        <v>138.4837095495545</v>
       </c>
       <c r="N13" t="n">
         <v>135.1908764627763</v>
       </c>
       <c r="O13" t="n">
-        <v>124.8706556908005</v>
+        <v>124.8706556908006</v>
       </c>
       <c r="P13" t="n">
         <v>106.8484180158483</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.97630624954742</v>
+        <v>73.97630624954743</v>
       </c>
       <c r="R13" t="n">
-        <v>39.72281084684197</v>
+        <v>39.72281084684199</v>
       </c>
       <c r="S13" t="n">
         <v>15.39600250574122</v>
@@ -31952,7 +31952,7 @@
         <v>3.774711099477503</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04818780126992563</v>
+        <v>0.04818780126992565</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34125,13 +34125,13 @@
         <v>1.969484675018733</v>
       </c>
       <c r="H41" t="n">
-        <v>20.1699849280356</v>
+        <v>20.16998492803561</v>
       </c>
       <c r="I41" t="n">
-        <v>75.92855793365977</v>
+        <v>75.92855793365979</v>
       </c>
       <c r="J41" t="n">
-        <v>167.1575499363713</v>
+        <v>167.1575499363714</v>
       </c>
       <c r="K41" t="n">
         <v>250.5258362299144</v>
@@ -34140,10 +34140,10 @@
         <v>310.799452853019</v>
       </c>
       <c r="M41" t="n">
-        <v>345.8242759423833</v>
+        <v>345.8242759423834</v>
       </c>
       <c r="N41" t="n">
-        <v>351.4200742752803</v>
+        <v>351.4200742752804</v>
       </c>
       <c r="O41" t="n">
         <v>331.8360110380628</v>
@@ -34158,10 +34158,10 @@
         <v>123.7156417171456</v>
       </c>
       <c r="S41" t="n">
-        <v>44.87963203198942</v>
+        <v>44.87963203198943</v>
       </c>
       <c r="T41" t="n">
-        <v>8.621419164894508</v>
+        <v>8.62141916489451</v>
       </c>
       <c r="U41" t="n">
         <v>0.1575587740014986</v>
@@ -34219,10 +34219,10 @@
         <v>228.8015144873077</v>
       </c>
       <c r="M42" t="n">
-        <v>267.000575536446</v>
+        <v>267.0005755364461</v>
       </c>
       <c r="N42" t="n">
-        <v>274.0672862858874</v>
+        <v>274.0672862858875</v>
       </c>
       <c r="O42" t="n">
         <v>250.7180235611146</v>
@@ -34234,13 +34234,13 @@
         <v>134.5124588958409</v>
       </c>
       <c r="R42" t="n">
-        <v>65.42600220346083</v>
+        <v>65.42600220346084</v>
       </c>
       <c r="S42" t="n">
         <v>19.57326358658211</v>
       </c>
       <c r="T42" t="n">
-        <v>4.247421307218173</v>
+        <v>4.247421307218174</v>
       </c>
       <c r="U42" t="n">
         <v>0.06932678956286469</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8834430232819691</v>
+        <v>0.8834430232819692</v>
       </c>
       <c r="H43" t="n">
-        <v>7.854611606997877</v>
+        <v>7.854611606997878</v>
       </c>
       <c r="I43" t="n">
         <v>26.56754110015232</v>
       </c>
       <c r="J43" t="n">
-        <v>62.45942174603522</v>
+        <v>62.45942174603523</v>
       </c>
       <c r="K43" t="n">
         <v>102.6400167049415</v>
@@ -34310,7 +34310,7 @@
         <v>106.8484180158483</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.97630624954743</v>
+        <v>73.97630624954745</v>
       </c>
       <c r="R43" t="n">
         <v>39.72281084684199</v>
@@ -34319,7 +34319,7 @@
         <v>15.39600250574122</v>
       </c>
       <c r="T43" t="n">
-        <v>3.774711099477503</v>
+        <v>3.774711099477504</v>
       </c>
       <c r="U43" t="n">
         <v>0.04818780126992565</v>
@@ -34701,25 +34701,25 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.11631013281968</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="M2" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>28.11631013281968</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="M3" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="O3" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="L4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26.98029760220071</v>
-      </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
         <v>28.11631013281968</v>
       </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,7 +34938,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K5" t="n">
-        <v>26.98029760220071</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>19.45843602451198</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35029,7 +35029,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>19.45843602451198</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>28.11631013281968</v>
@@ -35038,7 +35038,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="R6" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35102,19 +35102,19 @@
         <v>28.11631013281968</v>
       </c>
       <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>28.11631013281968</v>
+      </c>
+      <c r="P7" t="n">
         <v>26.98029760220071</v>
       </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>28.11631013281968</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.11631013281968</v>
+        <v>26.98029760220071</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>28.11631013281968</v>
       </c>
       <c r="R8" t="n">
-        <v>26.98029760220071</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>28.11631013281968</v>
       </c>
       <c r="K9" t="n">
+        <v>19.45843602451198</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>19.45843602451197</v>
       </c>
       <c r="R9" t="n">
         <v>28.11631013281968</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.9802976022007</v>
+        <v>28.11631013281968</v>
       </c>
       <c r="K10" t="n">
         <v>28.11631013281968</v>
       </c>
       <c r="L10" t="n">
+        <v>26.98029760220071</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>28.11631013281968</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>28.11631013281968</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.38065538969626</v>
+        <v>41.38065538969627</v>
       </c>
       <c r="J11" t="n">
         <v>137.7375904507848</v>
@@ -35424,16 +35424,16 @@
         <v>314.1404514408343</v>
       </c>
       <c r="O11" t="n">
-        <v>294.4450516820386</v>
+        <v>294.4450516820387</v>
       </c>
       <c r="P11" t="n">
-        <v>245.6389963133064</v>
+        <v>245.6389963133065</v>
       </c>
       <c r="Q11" t="n">
         <v>176.5575135948313</v>
       </c>
       <c r="R11" t="n">
-        <v>88.68299182234909</v>
+        <v>88.68299182234912</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>20.1086331212325</v>
+        <v>43.80288144892124</v>
       </c>
       <c r="J12" t="n">
-        <v>78.94677726491116</v>
+        <v>229.606909853395</v>
       </c>
       <c r="K12" t="n">
         <v>147.7610602557325</v>
       </c>
       <c r="L12" t="n">
-        <v>487.1615160477416</v>
+        <v>206.2864277730781</v>
       </c>
       <c r="M12" t="n">
-        <v>243.903795024118</v>
+        <v>243.9037950241181</v>
       </c>
       <c r="N12" t="n">
         <v>252.7242580723457</v>
       </c>
       <c r="O12" t="n">
-        <v>227.5461338388923</v>
+        <v>227.5461338388924</v>
       </c>
       <c r="P12" t="n">
         <v>179.4524763943714</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.7654206068623</v>
+        <v>111.7654206068624</v>
       </c>
       <c r="R12" t="n">
-        <v>41.75308280931667</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>120.5314704573059</v>
       </c>
       <c r="K13" t="n">
-        <v>81.67536225222946</v>
+        <v>331.4557754987164</v>
       </c>
       <c r="L13" t="n">
-        <v>109.4251237656926</v>
+        <v>489.61592537293</v>
       </c>
       <c r="M13" t="n">
-        <v>528.8986378817272</v>
+        <v>115.9082696580687</v>
       </c>
       <c r="N13" t="n">
-        <v>516.4954329032165</v>
+        <v>114.441975487176</v>
       </c>
       <c r="O13" t="n">
         <v>483.888967488541</v>
       </c>
       <c r="P13" t="n">
-        <v>203.9531713588186</v>
+        <v>389.0257821447941</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.35674348476248</v>
+        <v>49.35674348476249</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.82266576213335</v>
+        <v>120.5314704573059</v>
       </c>
       <c r="K16" t="n">
-        <v>81.6753622522295</v>
+        <v>331.4557754987164</v>
       </c>
       <c r="L16" t="n">
-        <v>307.6194824618223</v>
+        <v>489.61592537293</v>
       </c>
       <c r="M16" t="n">
-        <v>528.8986378817274</v>
+        <v>115.9082696580687</v>
       </c>
       <c r="N16" t="n">
-        <v>516.4954329032165</v>
+        <v>114.441975487176</v>
       </c>
       <c r="O16" t="n">
-        <v>483.888967488541</v>
+        <v>319.6292515166786</v>
       </c>
       <c r="P16" t="n">
-        <v>84.46761735786183</v>
+        <v>400.382975512718</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.3567434847625</v>
+        <v>202.2592660887009</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>20.10863312123251</v>
+        <v>43.80288144892124</v>
       </c>
       <c r="J18" t="n">
-        <v>78.94677726491119</v>
+        <v>229.6069098533949</v>
       </c>
       <c r="K18" t="n">
         <v>147.7610602557326</v>
@@ -35983,10 +35983,10 @@
         <v>179.4524763943715</v>
       </c>
       <c r="Q18" t="n">
-        <v>392.6405088815256</v>
+        <v>111.7654206068624</v>
       </c>
       <c r="R18" t="n">
-        <v>41.75308280931669</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>120.5314704573059</v>
       </c>
       <c r="K19" t="n">
-        <v>81.6753622522295</v>
+        <v>331.4557754987164</v>
       </c>
       <c r="L19" t="n">
         <v>109.4251237656927</v>
@@ -36053,16 +36053,16 @@
         <v>528.8986378817274</v>
       </c>
       <c r="N19" t="n">
-        <v>516.4954329032165</v>
+        <v>451.8027147989955</v>
       </c>
       <c r="O19" t="n">
-        <v>450.4719988855595</v>
+        <v>102.3714681923761</v>
       </c>
       <c r="P19" t="n">
-        <v>84.46761735786183</v>
+        <v>400.382975512718</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.2592660887009</v>
+        <v>49.3567434847625</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>20.10863312123251</v>
+        <v>43.80288144892124</v>
       </c>
       <c r="J21" t="n">
-        <v>359.8218655395743</v>
+        <v>229.6069098533949</v>
       </c>
       <c r="K21" t="n">
         <v>147.7610602557326</v>
@@ -36223,7 +36223,7 @@
         <v>111.7654206068624</v>
       </c>
       <c r="R21" t="n">
-        <v>41.75308280931669</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>109.4251237656927</v>
       </c>
       <c r="M22" t="n">
-        <v>528.8986378817274</v>
+        <v>411.1776384230009</v>
       </c>
       <c r="N22" t="n">
         <v>516.4954329032165</v>
@@ -36296,10 +36296,10 @@
         <v>483.888967488541</v>
       </c>
       <c r="P22" t="n">
-        <v>129.759453450053</v>
+        <v>400.382975512718</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.2592660887009</v>
+        <v>49.3567434847625</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,13 +36357,13 @@
         <v>41.38065538969629</v>
       </c>
       <c r="J23" t="n">
-        <v>137.7375904507848</v>
+        <v>520.7519495769416</v>
       </c>
       <c r="K23" t="n">
-        <v>615.9791179743038</v>
+        <v>214.761235435105</v>
       </c>
       <c r="L23" t="n">
-        <v>751.100965151531</v>
+        <v>272.4874104203961</v>
       </c>
       <c r="M23" t="n">
         <v>308.3930130429516</v>
@@ -36378,7 +36378,7 @@
         <v>245.6389963133065</v>
       </c>
       <c r="Q23" t="n">
-        <v>176.5575135948313</v>
+        <v>673.3745917390083</v>
       </c>
       <c r="R23" t="n">
         <v>88.68299182234915</v>
@@ -36436,10 +36436,10 @@
         <v>20.10863312123251</v>
       </c>
       <c r="J24" t="n">
-        <v>78.94677726491119</v>
+        <v>359.8218655395743</v>
       </c>
       <c r="K24" t="n">
-        <v>428.6361485303958</v>
+        <v>147.7610602557326</v>
       </c>
       <c r="L24" t="n">
         <v>206.2864277730781</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.82266576213335</v>
+        <v>120.5314704573059</v>
       </c>
       <c r="K25" t="n">
         <v>331.4557754987164</v>
@@ -36536,7 +36536,7 @@
         <v>400.382975512718</v>
       </c>
       <c r="Q25" t="n">
-        <v>176.7737281382012</v>
+        <v>98.06492344302863</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>41.38065538969629</v>
       </c>
       <c r="J26" t="n">
-        <v>366.9755270741626</v>
+        <v>533.4236699534375</v>
       </c>
       <c r="K26" t="n">
-        <v>214.761235435105</v>
+        <v>545.1301707000068</v>
       </c>
       <c r="L26" t="n">
         <v>272.4874104203961</v>
@@ -36615,7 +36615,7 @@
         <v>245.6389963133065</v>
       </c>
       <c r="Q26" t="n">
-        <v>673.3745917390083</v>
+        <v>176.5575135948313</v>
       </c>
       <c r="R26" t="n">
         <v>242.4594143251281</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>20.10863312123251</v>
+        <v>43.80288144892124</v>
       </c>
       <c r="J27" t="n">
         <v>78.94677726491119</v>
@@ -36691,13 +36691,13 @@
         <v>227.5461338388924</v>
       </c>
       <c r="P27" t="n">
-        <v>460.3275646690348</v>
+        <v>179.4524763943715</v>
       </c>
       <c r="Q27" t="n">
-        <v>111.7654206068624</v>
+        <v>262.4255531953459</v>
       </c>
       <c r="R27" t="n">
-        <v>41.75308280931669</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36761,7 +36761,7 @@
         <v>489.61592537293</v>
       </c>
       <c r="M28" t="n">
-        <v>429.426533540499</v>
+        <v>533.6208761861715</v>
       </c>
       <c r="N28" t="n">
         <v>516.4954329032165</v>
@@ -36773,7 +36773,7 @@
         <v>400.382975512718</v>
       </c>
       <c r="Q28" t="n">
-        <v>202.2592660887009</v>
+        <v>98.06492344302863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>41.38065538969629</v>
       </c>
       <c r="J29" t="n">
-        <v>137.7375904507848</v>
+        <v>533.4236699534375</v>
       </c>
       <c r="K29" t="n">
         <v>214.761235435105</v>
@@ -36840,7 +36840,7 @@
         <v>272.4874104203961</v>
       </c>
       <c r="M29" t="n">
-        <v>751.100965151531</v>
+        <v>308.3930130429516</v>
       </c>
       <c r="N29" t="n">
         <v>314.1404514408344</v>
@@ -36852,7 +36852,7 @@
         <v>245.6389963133065</v>
       </c>
       <c r="Q29" t="n">
-        <v>613.6809987565857</v>
+        <v>660.7028713625125</v>
       </c>
       <c r="R29" t="n">
         <v>88.68299182234915</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.10863312123251</v>
+        <v>43.80288144892124</v>
       </c>
       <c r="J30" t="n">
-        <v>359.8218655395743</v>
+        <v>229.6069098533949</v>
       </c>
       <c r="K30" t="n">
         <v>147.7610602557326</v>
@@ -36934,7 +36934,7 @@
         <v>111.7654206068624</v>
       </c>
       <c r="R30" t="n">
-        <v>41.75308280931669</v>
+        <v>148.2737901678074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.82266576213335</v>
+        <v>120.5314704573059</v>
       </c>
       <c r="K31" t="n">
         <v>331.4557754987164</v>
@@ -37010,7 +37010,7 @@
         <v>400.382975512718</v>
       </c>
       <c r="Q31" t="n">
-        <v>176.7737281382012</v>
+        <v>98.06492344302863</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>533.4236699534375</v>
       </c>
       <c r="K32" t="n">
-        <v>214.761235435105</v>
+        <v>220.293038471651</v>
       </c>
       <c r="L32" t="n">
-        <v>272.4874104203961</v>
+        <v>751.100965151531</v>
       </c>
       <c r="M32" t="n">
         <v>308.3930130429516</v>
@@ -37089,10 +37089,10 @@
         <v>245.6389963133065</v>
       </c>
       <c r="Q32" t="n">
-        <v>506.9264488597335</v>
+        <v>176.5575135948313</v>
       </c>
       <c r="R32" t="n">
-        <v>242.4594143251281</v>
+        <v>88.68299182234915</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>20.10863312123251</v>
       </c>
       <c r="J33" t="n">
-        <v>78.94677726491119</v>
+        <v>359.8218655395743</v>
       </c>
       <c r="K33" t="n">
         <v>147.7610602557326</v>
@@ -37156,7 +37156,7 @@
         <v>206.2864277730781</v>
       </c>
       <c r="M33" t="n">
-        <v>524.7788832987814</v>
+        <v>243.9037950241181</v>
       </c>
       <c r="N33" t="n">
         <v>252.7242580723458</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.82266576213335</v>
+        <v>120.5314704573059</v>
       </c>
       <c r="K34" t="n">
         <v>331.4557754987164</v>
@@ -37247,7 +37247,7 @@
         <v>400.382975512718</v>
       </c>
       <c r="Q34" t="n">
-        <v>176.7737281382012</v>
+        <v>98.06492344302863</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>41.38065538969629</v>
       </c>
       <c r="J35" t="n">
-        <v>137.7375904507848</v>
+        <v>137.737590450786</v>
       </c>
       <c r="K35" t="n">
         <v>214.761235435105</v>
@@ -37314,7 +37314,7 @@
         <v>272.4874104203961</v>
       </c>
       <c r="M35" t="n">
-        <v>308.393013042954</v>
+        <v>308.3930130429516</v>
       </c>
       <c r="N35" t="n">
         <v>314.1404514408344</v>
@@ -37384,13 +37384,13 @@
         <v>20.10863312123251</v>
       </c>
       <c r="J36" t="n">
-        <v>78.94677726491119</v>
+        <v>359.8218655395743</v>
       </c>
       <c r="K36" t="n">
         <v>147.7610602557326</v>
       </c>
       <c r="L36" t="n">
-        <v>487.1615160477412</v>
+        <v>206.2864277730781</v>
       </c>
       <c r="M36" t="n">
         <v>243.9037950241181</v>
@@ -37466,19 +37466,19 @@
         <v>41.82266576213335</v>
       </c>
       <c r="K37" t="n">
-        <v>81.6753622522295</v>
+        <v>301.732376757163</v>
       </c>
       <c r="L37" t="n">
         <v>489.61592537293</v>
       </c>
       <c r="M37" t="n">
-        <v>528.898637881728</v>
+        <v>528.8986378817276</v>
       </c>
       <c r="N37" t="n">
-        <v>516.4954329032165</v>
+        <v>114.441975487176</v>
       </c>
       <c r="O37" t="n">
-        <v>301.892524577435</v>
+        <v>483.888967488541</v>
       </c>
       <c r="P37" t="n">
         <v>84.46761735786183</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>41.82266576213335</v>
+        <v>120.5314704573059</v>
       </c>
       <c r="K40" t="n">
-        <v>331.4557754987164</v>
+        <v>81.6753622522295</v>
       </c>
       <c r="L40" t="n">
-        <v>109.4251237656927</v>
+        <v>489.61592537293</v>
       </c>
       <c r="M40" t="n">
         <v>528.8986378817274</v>
@@ -37715,13 +37715,13 @@
         <v>516.4954329032165</v>
       </c>
       <c r="O40" t="n">
-        <v>432.3029129381836</v>
+        <v>102.3714681923761</v>
       </c>
       <c r="P40" t="n">
         <v>84.46761735786183</v>
       </c>
       <c r="Q40" t="n">
-        <v>49.3567434847625</v>
+        <v>170.1689951746471</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.38065538969627</v>
+        <v>41.38065538969629</v>
       </c>
       <c r="J41" t="n">
         <v>137.7375904507848</v>
@@ -37785,16 +37785,16 @@
         <v>214.761235435105</v>
       </c>
       <c r="L41" t="n">
-        <v>272.487410420396</v>
+        <v>272.4874104203961</v>
       </c>
       <c r="M41" t="n">
-        <v>308.3930130429515</v>
+        <v>308.3930130429516</v>
       </c>
       <c r="N41" t="n">
-        <v>314.1404514408343</v>
+        <v>314.1404514408344</v>
       </c>
       <c r="O41" t="n">
-        <v>294.4450516820387</v>
+        <v>294.4450516820388</v>
       </c>
       <c r="P41" t="n">
         <v>245.6389963133065</v>
@@ -37803,7 +37803,7 @@
         <v>176.5575135948313</v>
       </c>
       <c r="R41" t="n">
-        <v>88.68299182234966</v>
+        <v>88.68299182234915</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>20.10863312123251</v>
       </c>
       <c r="J42" t="n">
-        <v>359.8218655395744</v>
+        <v>78.94677726491119</v>
       </c>
       <c r="K42" t="n">
-        <v>147.7610602557325</v>
+        <v>428.6361485303958</v>
       </c>
       <c r="L42" t="n">
         <v>206.2864277730781</v>
@@ -37870,19 +37870,19 @@
         <v>243.9037950241181</v>
       </c>
       <c r="N42" t="n">
-        <v>252.7242580723457</v>
+        <v>252.7242580723458</v>
       </c>
       <c r="O42" t="n">
         <v>227.5461338388924</v>
       </c>
       <c r="P42" t="n">
-        <v>179.4524763943714</v>
+        <v>179.4524763943715</v>
       </c>
       <c r="Q42" t="n">
         <v>111.7654206068624</v>
       </c>
       <c r="R42" t="n">
-        <v>41.75308280931668</v>
+        <v>41.75308280931669</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.1145018543244</v>
+        <v>41.82266576213335</v>
       </c>
       <c r="K43" t="n">
-        <v>81.67536225222949</v>
+        <v>81.6753622522295</v>
       </c>
       <c r="L43" t="n">
-        <v>109.4251237656927</v>
+        <v>404.6944925306249</v>
       </c>
       <c r="M43" t="n">
-        <v>528.8986378817274</v>
+        <v>115.9082696580687</v>
       </c>
       <c r="N43" t="n">
         <v>516.4954329032165</v>
@@ -37955,10 +37955,10 @@
         <v>483.888967488541</v>
       </c>
       <c r="P43" t="n">
-        <v>84.46761735786181</v>
+        <v>400.382975512718</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.2592660887009</v>
+        <v>49.3567434847625</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>20.10863312123251</v>
       </c>
       <c r="J45" t="n">
-        <v>359.8218655395744</v>
+        <v>78.94677726491119</v>
       </c>
       <c r="K45" t="n">
-        <v>147.7610602557325</v>
+        <v>428.6361485303959</v>
       </c>
       <c r="L45" t="n">
         <v>206.2864277730781</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>120.5314704573059</v>
+        <v>41.82266576213335</v>
       </c>
       <c r="K46" t="n">
         <v>81.67536225222949</v>
       </c>
       <c r="L46" t="n">
-        <v>109.4251237656927</v>
+        <v>489.61592537293</v>
       </c>
       <c r="M46" t="n">
         <v>528.8986378817274</v>
@@ -38189,13 +38189,13 @@
         <v>516.4954329032165</v>
       </c>
       <c r="O46" t="n">
-        <v>134.5566407307034</v>
+        <v>301.8925245774334</v>
       </c>
       <c r="P46" t="n">
-        <v>400.382975512718</v>
+        <v>84.46761735786181</v>
       </c>
       <c r="Q46" t="n">
-        <v>202.2592660887009</v>
+        <v>49.35674348476249</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
